--- a/src/main/resources/templates/exceltemplates/Maternity_Home_Checklist_V1.xlsx
+++ b/src/main/resources/templates/exceltemplates/Maternity_Home_Checklist_V1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DGA_Maharastra\Xforms\Mail Template\DGA_Maharastra_Checklist_r1\Maternity Home\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SDRC_DEV\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A62865F-0CBA-47EC-838C-DF1B1BBE913C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14635881-8D29-4CB5-B32D-FA478DE46129}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="IeJZ90rXQJTLtDsEJx2MemBspily4z82HfUW6+9DS8c2AY01bzVh4Fn6mg4NY+6fFrPYSnYzrl99c3xb09OROg==" workbookSaltValue="TYtOdIj4vJXWHF2jxMtuPw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -2569,33 +2569,18 @@
     <t>max_b.1</t>
   </si>
   <si>
-    <t>sec_b.1</t>
-  </si>
-  <si>
     <t>max_b.2</t>
   </si>
   <si>
-    <t>sec_b.2</t>
-  </si>
-  <si>
     <t>max_b.3</t>
   </si>
   <si>
-    <t>sec_b.3</t>
-  </si>
-  <si>
     <t>max_b.4</t>
   </si>
   <si>
-    <t>sec_b.4</t>
-  </si>
-  <si>
     <t>max_b</t>
   </si>
   <si>
-    <t>sec_b</t>
-  </si>
-  <si>
     <t>rmrks_b</t>
   </si>
   <si>
@@ -2605,108 +2590,57 @@
     <t>max_d.2</t>
   </si>
   <si>
-    <t>sec_d.2</t>
-  </si>
-  <si>
     <t>max_d.3</t>
   </si>
   <si>
-    <t>sec_d.3</t>
-  </si>
-  <si>
     <t>max_d.4</t>
   </si>
   <si>
-    <t>sec_d.4</t>
-  </si>
-  <si>
     <t>max_d.5</t>
   </si>
   <si>
-    <t>sec_d.5</t>
-  </si>
-  <si>
     <t>max_d.6</t>
   </si>
   <si>
-    <t>sec_d.6</t>
-  </si>
-  <si>
     <t>max_d.7</t>
   </si>
   <si>
-    <t>sec_d.7</t>
-  </si>
-  <si>
     <t>max_d.9</t>
   </si>
   <si>
-    <t>sec_d.9</t>
-  </si>
-  <si>
     <t>max_d.10</t>
   </si>
   <si>
-    <t>sec_d.10</t>
-  </si>
-  <si>
     <t>max_d.11</t>
   </si>
   <si>
-    <t>sec_d.11</t>
-  </si>
-  <si>
     <t>max_d.12</t>
   </si>
   <si>
-    <t>sec_d.12</t>
-  </si>
-  <si>
     <t>max_d</t>
   </si>
   <si>
-    <t>sec_d</t>
-  </si>
-  <si>
     <t>max_e</t>
   </si>
   <si>
-    <t>sec_e</t>
-  </si>
-  <si>
     <t>max_f.1</t>
   </si>
   <si>
-    <t>sec_f.1</t>
-  </si>
-  <si>
     <t>max_f.2</t>
   </si>
   <si>
-    <t>sec_f.2</t>
-  </si>
-  <si>
     <t>max_f</t>
   </si>
   <si>
-    <t>sec_f</t>
-  </si>
-  <si>
     <t>eg_g.1</t>
   </si>
   <si>
     <t>max_g</t>
   </si>
   <si>
-    <t>sec_g</t>
-  </si>
-  <si>
     <t>max_h</t>
   </si>
   <si>
-    <t>sec_h</t>
-  </si>
-  <si>
     <t>rmrks_h</t>
   </si>
   <si>
@@ -2716,72 +2650,39 @@
     <t>max_i.1</t>
   </si>
   <si>
-    <t>sec_i.1</t>
-  </si>
-  <si>
     <t>max_i.2</t>
   </si>
   <si>
-    <t>sec_i.2</t>
-  </si>
-  <si>
     <t>max_i.3</t>
   </si>
   <si>
-    <t>sec_i.3</t>
-  </si>
-  <si>
     <t>max_i.4</t>
   </si>
   <si>
-    <t>sec_i.4</t>
-  </si>
-  <si>
     <t>max_i.5</t>
   </si>
   <si>
-    <t>sec_i.5</t>
-  </si>
-  <si>
     <t>max_i.6</t>
   </si>
   <si>
-    <t>sec_i.6</t>
-  </si>
-  <si>
     <t>max_i.7</t>
   </si>
   <si>
-    <t>sec_i.7</t>
-  </si>
-  <si>
     <t>max_i.8</t>
   </si>
   <si>
-    <t>sec_i.8</t>
-  </si>
-  <si>
     <t>max_i.9</t>
   </si>
   <si>
-    <t>sec_i.9</t>
-  </si>
-  <si>
     <t>max_i</t>
   </si>
   <si>
-    <t>sec_i</t>
-  </si>
-  <si>
     <t>rmrks_i</t>
   </si>
   <si>
     <t>max_mh</t>
   </si>
   <si>
-    <t>sec_mh</t>
-  </si>
-  <si>
     <t>q_a.1.1</t>
   </si>
   <si>
@@ -3109,15 +3010,9 @@
     <t>Maximum score for Training Status of HR: 89</t>
   </si>
   <si>
-    <t>sec_c.5</t>
-  </si>
-  <si>
     <t>max_d.1</t>
   </si>
   <si>
-    <t>sec_d.1</t>
-  </si>
-  <si>
     <t>D.2.10. Floors, walls, roof, sink, patient care and coridor are clean</t>
   </si>
   <si>
@@ -3613,9 +3508,6 @@
     <t>Maximum score for NPCDCS: 6</t>
   </si>
   <si>
-    <t>sec_i.10</t>
-  </si>
-  <si>
     <t>Maximum score for Services related to National Health Programme: 27</t>
   </si>
   <si>
@@ -3772,9 +3664,6 @@
     <t>max_hra</t>
   </si>
   <si>
-    <t>sec_hra</t>
-  </si>
-  <si>
     <t>Maximum score for HR: 113</t>
   </si>
   <si>
@@ -3952,9 +3841,6 @@
     <t>max_k</t>
   </si>
   <si>
-    <t>sec_k</t>
-  </si>
-  <si>
     <t>L. Beneficiary targets and records (expected targets for the year 2021-22)</t>
   </si>
   <si>
@@ -4072,9 +3958,6 @@
     <t>max_m</t>
   </si>
   <si>
-    <t>sec_m</t>
-  </si>
-  <si>
     <t>municipality</t>
   </si>
   <si>
@@ -4411,9 +4294,6 @@
     <t>max_c</t>
   </si>
   <si>
-    <t>sec_c</t>
-  </si>
-  <si>
     <t>IND027026</t>
   </si>
   <si>
@@ -4766,6 +4646,126 @@
   </si>
   <si>
     <t xml:space="preserve">Overall Maximum score for Maternity Home: </t>
+  </si>
+  <si>
+    <t>calc_b.1</t>
+  </si>
+  <si>
+    <t>calc_b.2</t>
+  </si>
+  <si>
+    <t>calc_b.3</t>
+  </si>
+  <si>
+    <t>calc_b.4</t>
+  </si>
+  <si>
+    <t>calc_b</t>
+  </si>
+  <si>
+    <t>calc_hra</t>
+  </si>
+  <si>
+    <t>calc_c.5</t>
+  </si>
+  <si>
+    <t>calc_c</t>
+  </si>
+  <si>
+    <t>calc_d.1</t>
+  </si>
+  <si>
+    <t>calc_d.2</t>
+  </si>
+  <si>
+    <t>calc_d.3</t>
+  </si>
+  <si>
+    <t>calc_d.4</t>
+  </si>
+  <si>
+    <t>calc_d.5</t>
+  </si>
+  <si>
+    <t>calc_d.6</t>
+  </si>
+  <si>
+    <t>calc_d.7</t>
+  </si>
+  <si>
+    <t>calc_d.9</t>
+  </si>
+  <si>
+    <t>calc_d.10</t>
+  </si>
+  <si>
+    <t>calc_d.11</t>
+  </si>
+  <si>
+    <t>calc_d.12</t>
+  </si>
+  <si>
+    <t>calc_d</t>
+  </si>
+  <si>
+    <t>calc_e</t>
+  </si>
+  <si>
+    <t>calc_f.1</t>
+  </si>
+  <si>
+    <t>calc_f.2</t>
+  </si>
+  <si>
+    <t>calc_f</t>
+  </si>
+  <si>
+    <t>calc_g</t>
+  </si>
+  <si>
+    <t>calc_h</t>
+  </si>
+  <si>
+    <t>calc_i.1</t>
+  </si>
+  <si>
+    <t>calc_i.2</t>
+  </si>
+  <si>
+    <t>calc_i.3</t>
+  </si>
+  <si>
+    <t>calc_i.4</t>
+  </si>
+  <si>
+    <t>calc_i.5</t>
+  </si>
+  <si>
+    <t>calc_i.6</t>
+  </si>
+  <si>
+    <t>calc_i.7</t>
+  </si>
+  <si>
+    <t>calc_i.8</t>
+  </si>
+  <si>
+    <t>calc_i.9</t>
+  </si>
+  <si>
+    <t>calc_i.10</t>
+  </si>
+  <si>
+    <t>calc_i</t>
+  </si>
+  <si>
+    <t>calc_k</t>
+  </si>
+  <si>
+    <t>calc_m</t>
+  </si>
+  <si>
+    <t>calc_uphc</t>
   </si>
 </sst>
 </file>
@@ -5719,13 +5719,13 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K9" sqref="K9"/>
+      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="36.77734375" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="20.88671875" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="14" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="22.109375" hidden="1" customWidth="1"/>
     <col min="3" max="3" width="77.6640625" customWidth="1"/>
     <col min="4" max="4" width="38.5546875" customWidth="1"/>
     <col min="5" max="16384" width="8.88671875" style="125"/>
@@ -5739,10 +5739,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="123" t="s">
-        <v>1534</v>
+        <v>1494</v>
       </c>
       <c r="D1" s="124" t="s">
-        <v>1535</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -5831,19 +5831,19 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="45" t="s">
-        <v>1395</v>
+        <v>1356</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>914</v>
+        <v>881</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>915</v>
+        <v>882</v>
       </c>
       <c r="D9" s="4"/>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="45" t="s">
-        <v>1396</v>
+        <v>1357</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>562</v>
@@ -5855,7 +5855,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="45" t="s">
-        <v>1397</v>
+        <v>1358</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>563</v>
@@ -6060,7 +6060,7 @@
         <v>140</v>
       </c>
       <c r="B28" s="76" t="s">
-        <v>916</v>
+        <v>883</v>
       </c>
       <c r="C28" s="17" t="s">
         <v>7</v>
@@ -6132,10 +6132,10 @@
         <v>4</v>
       </c>
       <c r="B34" s="89" t="s">
-        <v>843</v>
+        <v>1536</v>
       </c>
       <c r="C34" s="89" t="s">
-        <v>1536</v>
+        <v>1496</v>
       </c>
       <c r="D34" s="89"/>
     </row>
@@ -6144,7 +6144,7 @@
         <v>141</v>
       </c>
       <c r="B35" s="86" t="s">
-        <v>917</v>
+        <v>884</v>
       </c>
       <c r="C35" s="21" t="s">
         <v>72</v>
@@ -6156,7 +6156,7 @@
         <v>140</v>
       </c>
       <c r="B36" s="77" t="s">
-        <v>928</v>
+        <v>895</v>
       </c>
       <c r="C36" s="16" t="s">
         <v>496</v>
@@ -6195,7 +6195,7 @@
         <v>571</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>921</v>
+        <v>888</v>
       </c>
       <c r="D39" s="4"/>
     </row>
@@ -6207,7 +6207,7 @@
         <v>572</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>922</v>
+        <v>889</v>
       </c>
       <c r="D40" s="4"/>
     </row>
@@ -6219,7 +6219,7 @@
         <v>573</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>923</v>
+        <v>890</v>
       </c>
       <c r="D41" s="4"/>
     </row>
@@ -6231,7 +6231,7 @@
         <v>574</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>924</v>
+        <v>891</v>
       </c>
       <c r="D42" s="4"/>
     </row>
@@ -6243,7 +6243,7 @@
         <v>575</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>925</v>
+        <v>892</v>
       </c>
       <c r="D43" s="4"/>
     </row>
@@ -6255,7 +6255,7 @@
         <v>576</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>926</v>
+        <v>893</v>
       </c>
       <c r="D44" s="4"/>
     </row>
@@ -6267,7 +6267,7 @@
         <v>577</v>
       </c>
       <c r="C45" s="88" t="s">
-        <v>927</v>
+        <v>894</v>
       </c>
       <c r="D45" s="4"/>
     </row>
@@ -6288,10 +6288,10 @@
         <v>4</v>
       </c>
       <c r="B47" s="89" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="C47" s="89" t="s">
-        <v>919</v>
+        <v>886</v>
       </c>
       <c r="D47" s="89"/>
     </row>
@@ -6300,10 +6300,10 @@
         <v>4</v>
       </c>
       <c r="B48" s="89" t="s">
-        <v>845</v>
+        <v>1537</v>
       </c>
       <c r="C48" s="89" t="s">
-        <v>1537</v>
+        <v>1497</v>
       </c>
       <c r="D48" s="89"/>
     </row>
@@ -6312,7 +6312,7 @@
         <v>141</v>
       </c>
       <c r="B49" s="77" t="s">
-        <v>931</v>
+        <v>898</v>
       </c>
       <c r="C49" s="22" t="s">
         <v>72</v>
@@ -6324,7 +6324,7 @@
         <v>140</v>
       </c>
       <c r="B50" s="78" t="s">
-        <v>918</v>
+        <v>885</v>
       </c>
       <c r="C50" s="9" t="s">
         <v>500</v>
@@ -6444,10 +6444,10 @@
         <v>4</v>
       </c>
       <c r="B60" s="89" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="C60" s="89" t="s">
-        <v>929</v>
+        <v>896</v>
       </c>
       <c r="D60" s="89"/>
     </row>
@@ -6456,10 +6456,10 @@
         <v>4</v>
       </c>
       <c r="B61" s="89" t="s">
-        <v>847</v>
+        <v>1538</v>
       </c>
       <c r="C61" s="89" t="s">
-        <v>1538</v>
+        <v>1498</v>
       </c>
       <c r="D61" s="89"/>
     </row>
@@ -6468,7 +6468,7 @@
         <v>141</v>
       </c>
       <c r="B62" s="78" t="s">
-        <v>920</v>
+        <v>887</v>
       </c>
       <c r="C62" s="6" t="s">
         <v>72</v>
@@ -6480,7 +6480,7 @@
         <v>140</v>
       </c>
       <c r="B63" s="66" t="s">
-        <v>932</v>
+        <v>899</v>
       </c>
       <c r="C63" s="15" t="s">
         <v>620</v>
@@ -6516,10 +6516,10 @@
         <v>4</v>
       </c>
       <c r="B66" s="89" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="C66" s="89" t="s">
-        <v>930</v>
+        <v>897</v>
       </c>
       <c r="D66" s="89"/>
     </row>
@@ -6528,10 +6528,10 @@
         <v>4</v>
       </c>
       <c r="B67" s="89" t="s">
-        <v>849</v>
+        <v>1539</v>
       </c>
       <c r="C67" s="89" t="s">
-        <v>1539</v>
+        <v>1499</v>
       </c>
       <c r="D67" s="89"/>
     </row>
@@ -6540,7 +6540,7 @@
         <v>141</v>
       </c>
       <c r="B68" s="66" t="s">
-        <v>933</v>
+        <v>900</v>
       </c>
       <c r="C68" s="24" t="s">
         <v>72</v>
@@ -6552,10 +6552,10 @@
         <v>4</v>
       </c>
       <c r="B69" s="74" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="C69" s="97" t="s">
-        <v>1531</v>
+        <v>1491</v>
       </c>
       <c r="D69" s="74"/>
     </row>
@@ -6564,10 +6564,10 @@
         <v>4</v>
       </c>
       <c r="B70" s="89" t="s">
-        <v>851</v>
+        <v>1540</v>
       </c>
       <c r="C70" s="89" t="s">
-        <v>1540</v>
+        <v>1500</v>
       </c>
       <c r="D70" s="89"/>
     </row>
@@ -6576,7 +6576,7 @@
         <v>15</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>852</v>
+        <v>847</v>
       </c>
       <c r="C71" s="7" t="s">
         <v>57</v>
@@ -6986,10 +6986,10 @@
         <v>4</v>
       </c>
       <c r="B106" s="89" t="s">
-        <v>1243</v>
+        <v>1207</v>
       </c>
       <c r="C106" s="89" t="s">
-        <v>1252</v>
+        <v>1215</v>
       </c>
       <c r="D106" s="89"/>
     </row>
@@ -6998,10 +6998,10 @@
         <v>4</v>
       </c>
       <c r="B107" s="89" t="s">
-        <v>1244</v>
+        <v>1541</v>
       </c>
       <c r="C107" s="89" t="s">
-        <v>1541</v>
+        <v>1501</v>
       </c>
       <c r="D107" s="89"/>
     </row>
@@ -7058,7 +7058,7 @@
         <v>5</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>934</v>
+        <v>901</v>
       </c>
       <c r="C112" s="7" t="s">
         <v>622</v>
@@ -7070,7 +7070,7 @@
         <v>5</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>935</v>
+        <v>902</v>
       </c>
       <c r="C113" s="8" t="s">
         <v>623</v>
@@ -7082,7 +7082,7 @@
         <v>5</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>936</v>
+        <v>903</v>
       </c>
       <c r="C114" s="8" t="s">
         <v>624</v>
@@ -7094,7 +7094,7 @@
         <v>5</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>937</v>
+        <v>904</v>
       </c>
       <c r="C115" s="8" t="s">
         <v>625</v>
@@ -7106,7 +7106,7 @@
         <v>5</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>938</v>
+        <v>905</v>
       </c>
       <c r="C116" s="4" t="s">
         <v>626</v>
@@ -7140,7 +7140,7 @@
         <v>5</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>939</v>
+        <v>906</v>
       </c>
       <c r="C119" s="7" t="s">
         <v>632</v>
@@ -7152,7 +7152,7 @@
         <v>5</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>940</v>
+        <v>907</v>
       </c>
       <c r="C120" s="8" t="s">
         <v>633</v>
@@ -7164,7 +7164,7 @@
         <v>5</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>941</v>
+        <v>908</v>
       </c>
       <c r="C121" s="7" t="s">
         <v>634</v>
@@ -7176,7 +7176,7 @@
         <v>5</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>942</v>
+        <v>909</v>
       </c>
       <c r="C122" s="7" t="s">
         <v>635</v>
@@ -7188,7 +7188,7 @@
         <v>5</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>943</v>
+        <v>910</v>
       </c>
       <c r="C123" s="7" t="s">
         <v>636</v>
@@ -7222,7 +7222,7 @@
         <v>5</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>944</v>
+        <v>911</v>
       </c>
       <c r="C126" s="7" t="s">
         <v>640</v>
@@ -7234,7 +7234,7 @@
         <v>5</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>945</v>
+        <v>912</v>
       </c>
       <c r="C127" s="8" t="s">
         <v>641</v>
@@ -7246,7 +7246,7 @@
         <v>5</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>946</v>
+        <v>913</v>
       </c>
       <c r="C128" s="7" t="s">
         <v>642</v>
@@ -7258,7 +7258,7 @@
         <v>5</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>947</v>
+        <v>914</v>
       </c>
       <c r="C129" s="7" t="s">
         <v>643</v>
@@ -7292,7 +7292,7 @@
         <v>5</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>948</v>
+        <v>915</v>
       </c>
       <c r="C132" s="7" t="s">
         <v>676</v>
@@ -7326,7 +7326,7 @@
         <v>5</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>949</v>
+        <v>916</v>
       </c>
       <c r="C135" s="7" t="s">
         <v>648</v>
@@ -7338,7 +7338,7 @@
         <v>5</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>950</v>
+        <v>917</v>
       </c>
       <c r="C136" s="7" t="s">
         <v>649</v>
@@ -7350,7 +7350,7 @@
         <v>5</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>951</v>
+        <v>918</v>
       </c>
       <c r="C137" s="7" t="s">
         <v>650</v>
@@ -7362,7 +7362,7 @@
         <v>5</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>952</v>
+        <v>919</v>
       </c>
       <c r="C138" s="7" t="s">
         <v>651</v>
@@ -7374,7 +7374,7 @@
         <v>5</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>953</v>
+        <v>920</v>
       </c>
       <c r="C139" s="7" t="s">
         <v>652</v>
@@ -7386,7 +7386,7 @@
         <v>5</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>954</v>
+        <v>921</v>
       </c>
       <c r="C140" s="7" t="s">
         <v>653</v>
@@ -7398,7 +7398,7 @@
         <v>5</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>955</v>
+        <v>922</v>
       </c>
       <c r="C141" s="7" t="s">
         <v>654</v>
@@ -7432,7 +7432,7 @@
         <v>5</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>956</v>
+        <v>923</v>
       </c>
       <c r="C144" s="7" t="s">
         <v>658</v>
@@ -7444,7 +7444,7 @@
         <v>5</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>957</v>
+        <v>924</v>
       </c>
       <c r="C145" s="7" t="s">
         <v>659</v>
@@ -7456,7 +7456,7 @@
         <v>5</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>958</v>
+        <v>925</v>
       </c>
       <c r="C146" s="7" t="s">
         <v>660</v>
@@ -7468,7 +7468,7 @@
         <v>5</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>959</v>
+        <v>926</v>
       </c>
       <c r="C147" s="7" t="s">
         <v>661</v>
@@ -7480,7 +7480,7 @@
         <v>5</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>960</v>
+        <v>927</v>
       </c>
       <c r="C148" s="7" t="s">
         <v>662</v>
@@ -7492,7 +7492,7 @@
         <v>5</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>961</v>
+        <v>928</v>
       </c>
       <c r="C149" s="7" t="s">
         <v>663</v>
@@ -7504,7 +7504,7 @@
         <v>5</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>962</v>
+        <v>929</v>
       </c>
       <c r="C150" s="7" t="s">
         <v>664</v>
@@ -7538,7 +7538,7 @@
         <v>5</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>963</v>
+        <v>930</v>
       </c>
       <c r="C153" s="7" t="s">
         <v>667</v>
@@ -7550,7 +7550,7 @@
         <v>5</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>964</v>
+        <v>931</v>
       </c>
       <c r="C154" s="7" t="s">
         <v>668</v>
@@ -7562,7 +7562,7 @@
         <v>5</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>965</v>
+        <v>932</v>
       </c>
       <c r="C155" s="7" t="s">
         <v>669</v>
@@ -7574,7 +7574,7 @@
         <v>5</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>966</v>
+        <v>933</v>
       </c>
       <c r="C156" s="7" t="s">
         <v>670</v>
@@ -7586,7 +7586,7 @@
         <v>5</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>967</v>
+        <v>934</v>
       </c>
       <c r="C157" s="7" t="s">
         <v>671</v>
@@ -7598,7 +7598,7 @@
         <v>5</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>968</v>
+        <v>935</v>
       </c>
       <c r="C158" s="7" t="s">
         <v>672</v>
@@ -7610,7 +7610,7 @@
         <v>5</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>969</v>
+        <v>936</v>
       </c>
       <c r="C159" s="7" t="s">
         <v>673</v>
@@ -7644,7 +7644,7 @@
         <v>5</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>970</v>
+        <v>937</v>
       </c>
       <c r="C162" s="7" t="s">
         <v>681</v>
@@ -7656,7 +7656,7 @@
         <v>5</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>971</v>
+        <v>938</v>
       </c>
       <c r="C163" s="7" t="s">
         <v>682</v>
@@ -7668,7 +7668,7 @@
         <v>5</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>972</v>
+        <v>939</v>
       </c>
       <c r="C164" s="7" t="s">
         <v>683</v>
@@ -7680,7 +7680,7 @@
         <v>5</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>973</v>
+        <v>940</v>
       </c>
       <c r="C165" s="7" t="s">
         <v>684</v>
@@ -7692,7 +7692,7 @@
         <v>5</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>974</v>
+        <v>941</v>
       </c>
       <c r="C166" s="7" t="s">
         <v>685</v>
@@ -7704,7 +7704,7 @@
         <v>5</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>975</v>
+        <v>942</v>
       </c>
       <c r="C167" s="7" t="s">
         <v>686</v>
@@ -7716,7 +7716,7 @@
         <v>5</v>
       </c>
       <c r="B168" s="4" t="s">
-        <v>976</v>
+        <v>943</v>
       </c>
       <c r="C168" s="7" t="s">
         <v>687</v>
@@ -7750,7 +7750,7 @@
         <v>5</v>
       </c>
       <c r="B171" s="4" t="s">
-        <v>977</v>
+        <v>944</v>
       </c>
       <c r="C171" s="7" t="s">
         <v>691</v>
@@ -7762,7 +7762,7 @@
         <v>5</v>
       </c>
       <c r="B172" s="4" t="s">
-        <v>978</v>
+        <v>945</v>
       </c>
       <c r="C172" s="7" t="s">
         <v>692</v>
@@ -7774,7 +7774,7 @@
         <v>5</v>
       </c>
       <c r="B173" s="4" t="s">
-        <v>979</v>
+        <v>946</v>
       </c>
       <c r="C173" s="7" t="s">
         <v>693</v>
@@ -7786,7 +7786,7 @@
         <v>5</v>
       </c>
       <c r="B174" s="4" t="s">
-        <v>980</v>
+        <v>947</v>
       </c>
       <c r="C174" s="7" t="s">
         <v>694</v>
@@ -7798,7 +7798,7 @@
         <v>5</v>
       </c>
       <c r="B175" s="4" t="s">
-        <v>981</v>
+        <v>948</v>
       </c>
       <c r="C175" s="7" t="s">
         <v>695</v>
@@ -7810,7 +7810,7 @@
         <v>5</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>982</v>
+        <v>949</v>
       </c>
       <c r="C176" s="7" t="s">
         <v>696</v>
@@ -7822,7 +7822,7 @@
         <v>5</v>
       </c>
       <c r="B177" s="4" t="s">
-        <v>983</v>
+        <v>950</v>
       </c>
       <c r="C177" s="7" t="s">
         <v>697</v>
@@ -7856,7 +7856,7 @@
         <v>5</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>984</v>
+        <v>951</v>
       </c>
       <c r="C180" s="7" t="s">
         <v>706</v>
@@ -7868,7 +7868,7 @@
         <v>5</v>
       </c>
       <c r="B181" s="4" t="s">
-        <v>985</v>
+        <v>952</v>
       </c>
       <c r="C181" s="7" t="s">
         <v>707</v>
@@ -7880,7 +7880,7 @@
         <v>5</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>986</v>
+        <v>953</v>
       </c>
       <c r="C182" s="7" t="s">
         <v>708</v>
@@ -7892,7 +7892,7 @@
         <v>5</v>
       </c>
       <c r="B183" s="4" t="s">
-        <v>987</v>
+        <v>954</v>
       </c>
       <c r="C183" s="7" t="s">
         <v>709</v>
@@ -7904,7 +7904,7 @@
         <v>5</v>
       </c>
       <c r="B184" s="4" t="s">
-        <v>988</v>
+        <v>955</v>
       </c>
       <c r="C184" s="7" t="s">
         <v>710</v>
@@ -7938,7 +7938,7 @@
         <v>5</v>
       </c>
       <c r="B187" s="4" t="s">
-        <v>989</v>
+        <v>956</v>
       </c>
       <c r="C187" s="8" t="s">
         <v>712</v>
@@ -7950,7 +7950,7 @@
         <v>5</v>
       </c>
       <c r="B188" s="4" t="s">
-        <v>990</v>
+        <v>957</v>
       </c>
       <c r="C188" s="8" t="s">
         <v>713</v>
@@ -7962,7 +7962,7 @@
         <v>5</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>991</v>
+        <v>958</v>
       </c>
       <c r="C189" s="8" t="s">
         <v>714</v>
@@ -7996,7 +7996,7 @@
         <v>5</v>
       </c>
       <c r="B192" s="4" t="s">
-        <v>992</v>
+        <v>959</v>
       </c>
       <c r="C192" s="8" t="s">
         <v>716</v>
@@ -8008,7 +8008,7 @@
         <v>5</v>
       </c>
       <c r="B193" s="4" t="s">
-        <v>993</v>
+        <v>960</v>
       </c>
       <c r="C193" s="8" t="s">
         <v>717</v>
@@ -8020,7 +8020,7 @@
         <v>5</v>
       </c>
       <c r="B194" s="4" t="s">
-        <v>994</v>
+        <v>961</v>
       </c>
       <c r="C194" s="8" t="s">
         <v>718</v>
@@ -8054,7 +8054,7 @@
         <v>5</v>
       </c>
       <c r="B197" s="4" t="s">
-        <v>995</v>
+        <v>962</v>
       </c>
       <c r="C197" s="7" t="s">
         <v>722</v>
@@ -8066,7 +8066,7 @@
         <v>5</v>
       </c>
       <c r="B198" s="4" t="s">
-        <v>996</v>
+        <v>963</v>
       </c>
       <c r="C198" s="7" t="s">
         <v>723</v>
@@ -8078,7 +8078,7 @@
         <v>5</v>
       </c>
       <c r="B199" s="4" t="s">
-        <v>997</v>
+        <v>964</v>
       </c>
       <c r="C199" s="7" t="s">
         <v>724</v>
@@ -8090,7 +8090,7 @@
         <v>5</v>
       </c>
       <c r="B200" s="4" t="s">
-        <v>998</v>
+        <v>965</v>
       </c>
       <c r="C200" s="7" t="s">
         <v>725</v>
@@ -8102,7 +8102,7 @@
         <v>5</v>
       </c>
       <c r="B201" s="4" t="s">
-        <v>999</v>
+        <v>966</v>
       </c>
       <c r="C201" s="7" t="s">
         <v>726</v>
@@ -8114,7 +8114,7 @@
         <v>5</v>
       </c>
       <c r="B202" s="4" t="s">
-        <v>1000</v>
+        <v>967</v>
       </c>
       <c r="C202" s="7" t="s">
         <v>727</v>
@@ -8126,7 +8126,7 @@
         <v>5</v>
       </c>
       <c r="B203" s="4" t="s">
-        <v>1001</v>
+        <v>968</v>
       </c>
       <c r="C203" s="7" t="s">
         <v>728</v>
@@ -8160,7 +8160,7 @@
         <v>5</v>
       </c>
       <c r="B206" s="4" t="s">
-        <v>1002</v>
+        <v>969</v>
       </c>
       <c r="C206" s="7" t="s">
         <v>732</v>
@@ -8172,7 +8172,7 @@
         <v>5</v>
       </c>
       <c r="B207" s="4" t="s">
-        <v>1003</v>
+        <v>970</v>
       </c>
       <c r="C207" s="7" t="s">
         <v>733</v>
@@ -8184,7 +8184,7 @@
         <v>5</v>
       </c>
       <c r="B208" s="4" t="s">
-        <v>1004</v>
+        <v>971</v>
       </c>
       <c r="C208" s="7" t="s">
         <v>734</v>
@@ -8196,7 +8196,7 @@
         <v>5</v>
       </c>
       <c r="B209" s="4" t="s">
-        <v>1005</v>
+        <v>972</v>
       </c>
       <c r="C209" s="7" t="s">
         <v>735</v>
@@ -8208,7 +8208,7 @@
         <v>5</v>
       </c>
       <c r="B210" s="4" t="s">
-        <v>1006</v>
+        <v>973</v>
       </c>
       <c r="C210" s="7" t="s">
         <v>736</v>
@@ -8220,7 +8220,7 @@
         <v>5</v>
       </c>
       <c r="B211" s="4" t="s">
-        <v>1007</v>
+        <v>974</v>
       </c>
       <c r="C211" s="7" t="s">
         <v>737</v>
@@ -8232,7 +8232,7 @@
         <v>5</v>
       </c>
       <c r="B212" s="4" t="s">
-        <v>1008</v>
+        <v>975</v>
       </c>
       <c r="C212" s="7" t="s">
         <v>738</v>
@@ -8266,7 +8266,7 @@
         <v>5</v>
       </c>
       <c r="B215" s="4" t="s">
-        <v>1009</v>
+        <v>976</v>
       </c>
       <c r="C215" s="8" t="s">
         <v>744</v>
@@ -8278,7 +8278,7 @@
         <v>5</v>
       </c>
       <c r="B216" s="4" t="s">
-        <v>1010</v>
+        <v>977</v>
       </c>
       <c r="C216" s="8" t="s">
         <v>745</v>
@@ -8290,7 +8290,7 @@
         <v>5</v>
       </c>
       <c r="B217" s="4" t="s">
-        <v>1011</v>
+        <v>978</v>
       </c>
       <c r="C217" s="8" t="s">
         <v>746</v>
@@ -8302,7 +8302,7 @@
         <v>5</v>
       </c>
       <c r="B218" s="4" t="s">
-        <v>1012</v>
+        <v>979</v>
       </c>
       <c r="C218" s="8" t="s">
         <v>747</v>
@@ -8314,7 +8314,7 @@
         <v>5</v>
       </c>
       <c r="B219" s="4" t="s">
-        <v>1013</v>
+        <v>980</v>
       </c>
       <c r="C219" s="8" t="s">
         <v>748</v>
@@ -8326,7 +8326,7 @@
         <v>5</v>
       </c>
       <c r="B220" s="4" t="s">
-        <v>1014</v>
+        <v>981</v>
       </c>
       <c r="C220" s="8" t="s">
         <v>749</v>
@@ -8338,7 +8338,7 @@
         <v>5</v>
       </c>
       <c r="B221" s="4" t="s">
-        <v>1015</v>
+        <v>982</v>
       </c>
       <c r="C221" s="8" t="s">
         <v>750</v>
@@ -8372,7 +8372,7 @@
         <v>5</v>
       </c>
       <c r="B224" s="4" t="s">
-        <v>1016</v>
+        <v>983</v>
       </c>
       <c r="C224" s="8" t="s">
         <v>753</v>
@@ -8384,7 +8384,7 @@
         <v>5</v>
       </c>
       <c r="B225" s="4" t="s">
-        <v>1017</v>
+        <v>984</v>
       </c>
       <c r="C225" s="8" t="s">
         <v>754</v>
@@ -8396,7 +8396,7 @@
         <v>5</v>
       </c>
       <c r="B226" s="4" t="s">
-        <v>1018</v>
+        <v>985</v>
       </c>
       <c r="C226" s="8" t="s">
         <v>755</v>
@@ -8408,7 +8408,7 @@
         <v>5</v>
       </c>
       <c r="B227" s="4" t="s">
-        <v>1019</v>
+        <v>986</v>
       </c>
       <c r="C227" s="8" t="s">
         <v>756</v>
@@ -8420,7 +8420,7 @@
         <v>5</v>
       </c>
       <c r="B228" s="4" t="s">
-        <v>1020</v>
+        <v>987</v>
       </c>
       <c r="C228" s="8" t="s">
         <v>757</v>
@@ -8442,10 +8442,10 @@
         <v>4</v>
       </c>
       <c r="B230" s="89" t="s">
-        <v>1021</v>
+        <v>988</v>
       </c>
       <c r="C230" s="89" t="s">
-        <v>1022</v>
+        <v>989</v>
       </c>
       <c r="D230" s="89"/>
     </row>
@@ -8454,10 +8454,10 @@
         <v>4</v>
       </c>
       <c r="B231" s="89" t="s">
-        <v>1023</v>
+        <v>1542</v>
       </c>
       <c r="C231" s="89" t="s">
-        <v>1542</v>
+        <v>1502</v>
       </c>
       <c r="D231" s="89"/>
     </row>
@@ -8476,10 +8476,10 @@
         <v>4</v>
       </c>
       <c r="B233" s="89" t="s">
-        <v>1456</v>
+        <v>1417</v>
       </c>
       <c r="C233" s="89" t="s">
-        <v>1245</v>
+        <v>1208</v>
       </c>
       <c r="D233" s="89"/>
     </row>
@@ -8488,10 +8488,10 @@
         <v>4</v>
       </c>
       <c r="B234" s="89" t="s">
-        <v>1457</v>
+        <v>1543</v>
       </c>
       <c r="C234" s="89" t="s">
-        <v>1543</v>
+        <v>1503</v>
       </c>
       <c r="D234" s="89"/>
     </row>
@@ -8500,7 +8500,7 @@
         <v>15</v>
       </c>
       <c r="B235" s="4" t="s">
-        <v>853</v>
+        <v>848</v>
       </c>
       <c r="C235" s="7" t="s">
         <v>57</v>
@@ -8630,10 +8630,10 @@
         <v>4</v>
       </c>
       <c r="B246" s="89" t="s">
-        <v>1024</v>
+        <v>990</v>
       </c>
       <c r="C246" s="89" t="s">
-        <v>1253</v>
+        <v>1216</v>
       </c>
       <c r="D246" s="89"/>
     </row>
@@ -8642,10 +8642,10 @@
         <v>4</v>
       </c>
       <c r="B247" s="89" t="s">
-        <v>1025</v>
+        <v>1544</v>
       </c>
       <c r="C247" s="89" t="s">
-        <v>1544</v>
+        <v>1504</v>
       </c>
       <c r="D247" s="89"/>
     </row>
@@ -8787,7 +8787,7 @@
         <v>172</v>
       </c>
       <c r="C259" s="98" t="s">
-        <v>1026</v>
+        <v>991</v>
       </c>
       <c r="D259" s="4"/>
     </row>
@@ -8832,10 +8832,10 @@
         <v>6</v>
       </c>
       <c r="B263" s="4" t="s">
-        <v>1027</v>
+        <v>992</v>
       </c>
       <c r="C263" s="7" t="s">
-        <v>1028</v>
+        <v>993</v>
       </c>
       <c r="D263" s="4"/>
     </row>
@@ -8844,10 +8844,10 @@
         <v>6</v>
       </c>
       <c r="B264" s="4" t="s">
-        <v>1029</v>
+        <v>994</v>
       </c>
       <c r="C264" s="7" t="s">
-        <v>1030</v>
+        <v>995</v>
       </c>
       <c r="D264" s="4"/>
     </row>
@@ -8859,7 +8859,7 @@
         <v>763</v>
       </c>
       <c r="C265" s="7" t="s">
-        <v>1031</v>
+        <v>996</v>
       </c>
       <c r="D265" s="4"/>
     </row>
@@ -8871,7 +8871,7 @@
         <v>176</v>
       </c>
       <c r="C266" s="7" t="s">
-        <v>1032</v>
+        <v>997</v>
       </c>
       <c r="D266" s="4"/>
     </row>
@@ -8880,10 +8880,10 @@
         <v>6</v>
       </c>
       <c r="B267" s="4" t="s">
-        <v>1033</v>
+        <v>998</v>
       </c>
       <c r="C267" s="7" t="s">
-        <v>1034</v>
+        <v>999</v>
       </c>
       <c r="D267" s="4"/>
     </row>
@@ -8895,7 +8895,7 @@
         <v>177</v>
       </c>
       <c r="C268" s="7" t="s">
-        <v>1035</v>
+        <v>1000</v>
       </c>
       <c r="D268" s="4"/>
     </row>
@@ -8907,7 +8907,7 @@
         <v>178</v>
       </c>
       <c r="C269" s="7" t="s">
-        <v>1036</v>
+        <v>1001</v>
       </c>
       <c r="D269" s="4"/>
     </row>
@@ -8919,7 +8919,7 @@
         <v>179</v>
       </c>
       <c r="C270" s="7" t="s">
-        <v>1037</v>
+        <v>1002</v>
       </c>
       <c r="D270" s="4"/>
     </row>
@@ -8931,7 +8931,7 @@
         <v>180</v>
       </c>
       <c r="C271" s="7" t="s">
-        <v>1038</v>
+        <v>1003</v>
       </c>
       <c r="D271" s="4"/>
     </row>
@@ -8943,7 +8943,7 @@
         <v>181</v>
       </c>
       <c r="C272" s="7" t="s">
-        <v>1039</v>
+        <v>1004</v>
       </c>
       <c r="D272" s="4"/>
     </row>
@@ -8952,10 +8952,10 @@
         <v>4</v>
       </c>
       <c r="B273" s="89" t="s">
-        <v>854</v>
+        <v>849</v>
       </c>
       <c r="C273" s="89" t="s">
-        <v>1254</v>
+        <v>1217</v>
       </c>
       <c r="D273" s="89"/>
     </row>
@@ -8964,10 +8964,10 @@
         <v>4</v>
       </c>
       <c r="B274" s="89" t="s">
-        <v>855</v>
+        <v>1545</v>
       </c>
       <c r="C274" s="89" t="s">
-        <v>1545</v>
+        <v>1505</v>
       </c>
       <c r="D274" s="89"/>
     </row>
@@ -9048,10 +9048,10 @@
         <v>4</v>
       </c>
       <c r="B281" s="89" t="s">
-        <v>856</v>
+        <v>850</v>
       </c>
       <c r="C281" s="89" t="s">
-        <v>1255</v>
+        <v>1218</v>
       </c>
       <c r="D281" s="89"/>
     </row>
@@ -9060,10 +9060,10 @@
         <v>4</v>
       </c>
       <c r="B282" s="89" t="s">
-        <v>857</v>
+        <v>1546</v>
       </c>
       <c r="C282" s="89" t="s">
-        <v>1546</v>
+        <v>1506</v>
       </c>
       <c r="D282" s="89"/>
     </row>
@@ -9144,10 +9144,10 @@
         <v>4</v>
       </c>
       <c r="B289" s="89" t="s">
-        <v>858</v>
+        <v>851</v>
       </c>
       <c r="C289" s="89" t="s">
-        <v>1256</v>
+        <v>1219</v>
       </c>
       <c r="D289" s="89"/>
     </row>
@@ -9156,10 +9156,10 @@
         <v>4</v>
       </c>
       <c r="B290" s="89" t="s">
-        <v>859</v>
+        <v>1547</v>
       </c>
       <c r="C290" s="89" t="s">
-        <v>1547</v>
+        <v>1507</v>
       </c>
       <c r="D290" s="89"/>
     </row>
@@ -9408,10 +9408,10 @@
         <v>5</v>
       </c>
       <c r="B311" s="4" t="s">
-        <v>1040</v>
+        <v>1005</v>
       </c>
       <c r="C311" s="98" t="s">
-        <v>1246</v>
+        <v>1209</v>
       </c>
       <c r="D311" s="4"/>
     </row>
@@ -9423,7 +9423,7 @@
         <v>206</v>
       </c>
       <c r="C312" s="98" t="s">
-        <v>1247</v>
+        <v>1210</v>
       </c>
       <c r="D312" s="4"/>
     </row>
@@ -9435,7 +9435,7 @@
         <v>207</v>
       </c>
       <c r="C313" s="98" t="s">
-        <v>1248</v>
+        <v>1211</v>
       </c>
       <c r="D313" s="4"/>
     </row>
@@ -9447,7 +9447,7 @@
         <v>208</v>
       </c>
       <c r="C314" s="98" t="s">
-        <v>1249</v>
+        <v>1212</v>
       </c>
       <c r="D314" s="4"/>
     </row>
@@ -9456,10 +9456,10 @@
         <v>4</v>
       </c>
       <c r="B315" s="89" t="s">
-        <v>860</v>
+        <v>852</v>
       </c>
       <c r="C315" s="89" t="s">
-        <v>1257</v>
+        <v>1220</v>
       </c>
       <c r="D315" s="89"/>
     </row>
@@ -9468,10 +9468,10 @@
         <v>4</v>
       </c>
       <c r="B316" s="89" t="s">
-        <v>861</v>
+        <v>1548</v>
       </c>
       <c r="C316" s="89" t="s">
-        <v>1548</v>
+        <v>1508</v>
       </c>
       <c r="D316" s="89"/>
     </row>
@@ -9586,10 +9586,10 @@
         <v>4</v>
       </c>
       <c r="B326" s="89" t="s">
-        <v>862</v>
+        <v>853</v>
       </c>
       <c r="C326" s="119" t="s">
-        <v>1258</v>
+        <v>1221</v>
       </c>
       <c r="D326" s="89"/>
     </row>
@@ -9598,10 +9598,10 @@
         <v>4</v>
       </c>
       <c r="B327" s="89" t="s">
-        <v>863</v>
+        <v>1549</v>
       </c>
       <c r="C327" s="119" t="s">
-        <v>1549</v>
+        <v>1509</v>
       </c>
       <c r="D327" s="89"/>
     </row>
@@ -9643,7 +9643,7 @@
     </row>
     <row r="331" spans="1:4">
       <c r="A331" s="4" t="s">
-        <v>1041</v>
+        <v>1006</v>
       </c>
       <c r="B331" s="4" t="s">
         <v>252</v>
@@ -9718,7 +9718,7 @@
         <v>5</v>
       </c>
       <c r="B337" s="4" t="s">
-        <v>1042</v>
+        <v>1007</v>
       </c>
       <c r="C337" s="7" t="s">
         <v>807</v>
@@ -9742,10 +9742,10 @@
         <v>4</v>
       </c>
       <c r="B339" s="89" t="s">
-        <v>864</v>
+        <v>854</v>
       </c>
       <c r="C339" s="119" t="s">
-        <v>1259</v>
+        <v>1222</v>
       </c>
       <c r="D339" s="89"/>
     </row>
@@ -9754,10 +9754,10 @@
         <v>4</v>
       </c>
       <c r="B340" s="89" t="s">
-        <v>865</v>
+        <v>1550</v>
       </c>
       <c r="C340" s="119" t="s">
-        <v>1550</v>
+        <v>1510</v>
       </c>
       <c r="D340" s="89"/>
     </row>
@@ -9872,10 +9872,10 @@
         <v>4</v>
       </c>
       <c r="B350" s="89" t="s">
-        <v>866</v>
+        <v>855</v>
       </c>
       <c r="C350" s="119" t="s">
-        <v>1043</v>
+        <v>1008</v>
       </c>
       <c r="D350" s="89"/>
     </row>
@@ -9884,10 +9884,10 @@
         <v>4</v>
       </c>
       <c r="B351" s="89" t="s">
-        <v>867</v>
+        <v>1551</v>
       </c>
       <c r="C351" s="120" t="s">
-        <v>1551</v>
+        <v>1511</v>
       </c>
       <c r="D351" s="89"/>
     </row>
@@ -9942,10 +9942,10 @@
         <v>4</v>
       </c>
       <c r="B356" s="89" t="s">
-        <v>868</v>
+        <v>856</v>
       </c>
       <c r="C356" s="119" t="s">
-        <v>1044</v>
+        <v>1009</v>
       </c>
       <c r="D356" s="89"/>
     </row>
@@ -9954,10 +9954,10 @@
         <v>4</v>
       </c>
       <c r="B357" s="89" t="s">
-        <v>869</v>
+        <v>1552</v>
       </c>
       <c r="C357" s="120" t="s">
-        <v>1552</v>
+        <v>1512</v>
       </c>
       <c r="D357" s="89"/>
     </row>
@@ -10048,10 +10048,10 @@
         <v>4</v>
       </c>
       <c r="B365" s="89" t="s">
-        <v>870</v>
+        <v>857</v>
       </c>
       <c r="C365" s="119" t="s">
-        <v>1260</v>
+        <v>1223</v>
       </c>
       <c r="D365" s="89"/>
     </row>
@@ -10060,10 +10060,10 @@
         <v>4</v>
       </c>
       <c r="B366" s="89" t="s">
-        <v>871</v>
+        <v>1553</v>
       </c>
       <c r="C366" s="120" t="s">
-        <v>1553</v>
+        <v>1513</v>
       </c>
       <c r="D366" s="89"/>
     </row>
@@ -10085,7 +10085,7 @@
         <v>152</v>
       </c>
       <c r="C368" s="37" t="s">
-        <v>1045</v>
+        <v>1010</v>
       </c>
       <c r="D368" s="61"/>
     </row>
@@ -10097,7 +10097,7 @@
         <v>219</v>
       </c>
       <c r="C369" s="7" t="s">
-        <v>1046</v>
+        <v>1011</v>
       </c>
       <c r="D369" s="4"/>
     </row>
@@ -10106,10 +10106,10 @@
         <v>5</v>
       </c>
       <c r="B370" s="4" t="s">
-        <v>1047</v>
+        <v>1012</v>
       </c>
       <c r="C370" s="7" t="s">
-        <v>1048</v>
+        <v>1013</v>
       </c>
       <c r="D370" s="4"/>
     </row>
@@ -10118,10 +10118,10 @@
         <v>5</v>
       </c>
       <c r="B371" s="4" t="s">
-        <v>1049</v>
+        <v>1014</v>
       </c>
       <c r="C371" s="7" t="s">
-        <v>1050</v>
+        <v>1015</v>
       </c>
       <c r="D371" s="4"/>
     </row>
@@ -10130,10 +10130,10 @@
         <v>5</v>
       </c>
       <c r="B372" s="4" t="s">
-        <v>1051</v>
+        <v>1016</v>
       </c>
       <c r="C372" s="7" t="s">
-        <v>1052</v>
+        <v>1017</v>
       </c>
       <c r="D372" s="4"/>
     </row>
@@ -10142,10 +10142,10 @@
         <v>5</v>
       </c>
       <c r="B373" s="4" t="s">
-        <v>1053</v>
+        <v>1018</v>
       </c>
       <c r="C373" s="7" t="s">
-        <v>1054</v>
+        <v>1019</v>
       </c>
       <c r="D373" s="4"/>
     </row>
@@ -10154,10 +10154,10 @@
         <v>5</v>
       </c>
       <c r="B374" s="4" t="s">
-        <v>1055</v>
+        <v>1020</v>
       </c>
       <c r="C374" s="7" t="s">
-        <v>1056</v>
+        <v>1021</v>
       </c>
       <c r="D374" s="4"/>
     </row>
@@ -10166,10 +10166,10 @@
         <v>5</v>
       </c>
       <c r="B375" s="4" t="s">
-        <v>1057</v>
+        <v>1022</v>
       </c>
       <c r="C375" s="7" t="s">
-        <v>1058</v>
+        <v>1023</v>
       </c>
       <c r="D375" s="4"/>
     </row>
@@ -10178,10 +10178,10 @@
         <v>812</v>
       </c>
       <c r="B376" s="4" t="s">
-        <v>1059</v>
+        <v>1024</v>
       </c>
       <c r="C376" s="7" t="s">
-        <v>1060</v>
+        <v>1025</v>
       </c>
       <c r="D376" s="4"/>
     </row>
@@ -10190,10 +10190,10 @@
         <v>5</v>
       </c>
       <c r="B377" s="4" t="s">
-        <v>1061</v>
+        <v>1026</v>
       </c>
       <c r="C377" s="7" t="s">
-        <v>1062</v>
+        <v>1027</v>
       </c>
       <c r="D377" s="4"/>
     </row>
@@ -10202,10 +10202,10 @@
         <v>5</v>
       </c>
       <c r="B378" s="4" t="s">
-        <v>1063</v>
+        <v>1028</v>
       </c>
       <c r="C378" s="7" t="s">
-        <v>1064</v>
+        <v>1029</v>
       </c>
       <c r="D378" s="4"/>
     </row>
@@ -10214,10 +10214,10 @@
         <v>815</v>
       </c>
       <c r="B379" s="4" t="s">
-        <v>1065</v>
+        <v>1030</v>
       </c>
       <c r="C379" s="7" t="s">
-        <v>1066</v>
+        <v>1031</v>
       </c>
       <c r="D379" s="4"/>
     </row>
@@ -10226,10 +10226,10 @@
         <v>5</v>
       </c>
       <c r="B380" s="4" t="s">
-        <v>1067</v>
+        <v>1032</v>
       </c>
       <c r="C380" s="7" t="s">
-        <v>1068</v>
+        <v>1033</v>
       </c>
       <c r="D380" s="4"/>
     </row>
@@ -10238,10 +10238,10 @@
         <v>5</v>
       </c>
       <c r="B381" s="4" t="s">
-        <v>1069</v>
+        <v>1034</v>
       </c>
       <c r="C381" s="7" t="s">
-        <v>1070</v>
+        <v>1035</v>
       </c>
       <c r="D381" s="4"/>
     </row>
@@ -10250,10 +10250,10 @@
         <v>5</v>
       </c>
       <c r="B382" s="4" t="s">
-        <v>1071</v>
+        <v>1036</v>
       </c>
       <c r="C382" s="7" t="s">
-        <v>1072</v>
+        <v>1037</v>
       </c>
       <c r="D382" s="4"/>
     </row>
@@ -10262,10 +10262,10 @@
         <v>4</v>
       </c>
       <c r="B383" s="89" t="s">
-        <v>872</v>
+        <v>858</v>
       </c>
       <c r="C383" s="89" t="s">
-        <v>1073</v>
+        <v>1038</v>
       </c>
       <c r="D383" s="89"/>
     </row>
@@ -10274,10 +10274,10 @@
         <v>4</v>
       </c>
       <c r="B384" s="89" t="s">
-        <v>873</v>
+        <v>1554</v>
       </c>
       <c r="C384" s="89" t="s">
-        <v>1554</v>
+        <v>1514</v>
       </c>
       <c r="D384" s="89"/>
     </row>
@@ -10296,10 +10296,10 @@
         <v>4</v>
       </c>
       <c r="B386" s="89" t="s">
-        <v>874</v>
+        <v>859</v>
       </c>
       <c r="C386" s="89" t="s">
-        <v>1454</v>
+        <v>1415</v>
       </c>
       <c r="D386" s="89"/>
     </row>
@@ -10308,10 +10308,10 @@
         <v>4</v>
       </c>
       <c r="B387" s="89" t="s">
-        <v>875</v>
+        <v>1555</v>
       </c>
       <c r="C387" s="89" t="s">
-        <v>1555</v>
+        <v>1515</v>
       </c>
       <c r="D387" s="89"/>
     </row>
@@ -10344,10 +10344,10 @@
         <v>5</v>
       </c>
       <c r="B390" s="4" t="s">
-        <v>1074</v>
+        <v>1039</v>
       </c>
       <c r="C390" s="7" t="s">
-        <v>1075</v>
+        <v>1040</v>
       </c>
       <c r="D390" s="4"/>
     </row>
@@ -10356,7 +10356,7 @@
         <v>5</v>
       </c>
       <c r="B391" s="4" t="s">
-        <v>1076</v>
+        <v>1041</v>
       </c>
       <c r="C391" s="7" t="s">
         <v>363</v>
@@ -10368,10 +10368,10 @@
         <v>5</v>
       </c>
       <c r="B392" s="4" t="s">
-        <v>1077</v>
+        <v>1042</v>
       </c>
       <c r="C392" s="98" t="s">
-        <v>1250</v>
+        <v>1213</v>
       </c>
       <c r="D392" s="4"/>
     </row>
@@ -10380,7 +10380,7 @@
         <v>5</v>
       </c>
       <c r="B393" s="4" t="s">
-        <v>1078</v>
+        <v>1043</v>
       </c>
       <c r="C393" s="7" t="s">
         <v>364</v>
@@ -10392,7 +10392,7 @@
         <v>5</v>
       </c>
       <c r="B394" s="4" t="s">
-        <v>1079</v>
+        <v>1044</v>
       </c>
       <c r="C394" s="7" t="s">
         <v>365</v>
@@ -10404,7 +10404,7 @@
         <v>5</v>
       </c>
       <c r="B395" s="4" t="s">
-        <v>1080</v>
+        <v>1045</v>
       </c>
       <c r="C395" s="7" t="s">
         <v>366</v>
@@ -10416,7 +10416,7 @@
         <v>5</v>
       </c>
       <c r="B396" s="4" t="s">
-        <v>1081</v>
+        <v>1046</v>
       </c>
       <c r="C396" s="7" t="s">
         <v>367</v>
@@ -10428,7 +10428,7 @@
         <v>5</v>
       </c>
       <c r="B397" s="4" t="s">
-        <v>1082</v>
+        <v>1047</v>
       </c>
       <c r="C397" s="7" t="s">
         <v>368</v>
@@ -10440,7 +10440,7 @@
         <v>5</v>
       </c>
       <c r="B398" s="4" t="s">
-        <v>1083</v>
+        <v>1048</v>
       </c>
       <c r="C398" s="7" t="s">
         <v>369</v>
@@ -10452,7 +10452,7 @@
         <v>5</v>
       </c>
       <c r="B399" s="4" t="s">
-        <v>1084</v>
+        <v>1049</v>
       </c>
       <c r="C399" s="7" t="s">
         <v>370</v>
@@ -10464,7 +10464,7 @@
         <v>5</v>
       </c>
       <c r="B400" s="4" t="s">
-        <v>1085</v>
+        <v>1050</v>
       </c>
       <c r="C400" s="7" t="s">
         <v>371</v>
@@ -10476,7 +10476,7 @@
         <v>5</v>
       </c>
       <c r="B401" s="4" t="s">
-        <v>1086</v>
+        <v>1051</v>
       </c>
       <c r="C401" s="7" t="s">
         <v>372</v>
@@ -10488,7 +10488,7 @@
         <v>5</v>
       </c>
       <c r="B402" s="4" t="s">
-        <v>1087</v>
+        <v>1052</v>
       </c>
       <c r="C402" s="7" t="s">
         <v>373</v>
@@ -10500,7 +10500,7 @@
         <v>5</v>
       </c>
       <c r="B403" s="4" t="s">
-        <v>1088</v>
+        <v>1053</v>
       </c>
       <c r="C403" s="7" t="s">
         <v>374</v>
@@ -10512,7 +10512,7 @@
         <v>5</v>
       </c>
       <c r="B404" s="4" t="s">
-        <v>1089</v>
+        <v>1054</v>
       </c>
       <c r="C404" s="7" t="s">
         <v>375</v>
@@ -10524,7 +10524,7 @@
         <v>5</v>
       </c>
       <c r="B405" s="4" t="s">
-        <v>1090</v>
+        <v>1055</v>
       </c>
       <c r="C405" s="7" t="s">
         <v>376</v>
@@ -10536,10 +10536,10 @@
         <v>4</v>
       </c>
       <c r="B406" s="89" t="s">
-        <v>876</v>
+        <v>860</v>
       </c>
       <c r="C406" s="89" t="s">
-        <v>1242</v>
+        <v>1206</v>
       </c>
       <c r="D406" s="89"/>
     </row>
@@ -10548,10 +10548,10 @@
         <v>4</v>
       </c>
       <c r="B407" s="89" t="s">
-        <v>877</v>
+        <v>1556</v>
       </c>
       <c r="C407" s="89" t="s">
-        <v>1556</v>
+        <v>1516</v>
       </c>
       <c r="D407" s="89"/>
     </row>
@@ -10585,7 +10585,7 @@
         <v>316</v>
       </c>
       <c r="C410" s="55" t="s">
-        <v>1091</v>
+        <v>1056</v>
       </c>
       <c r="D410" s="67"/>
     </row>
@@ -10822,10 +10822,10 @@
         <v>4</v>
       </c>
       <c r="B430" s="89" t="s">
-        <v>878</v>
+        <v>861</v>
       </c>
       <c r="C430" s="89" t="s">
-        <v>1092</v>
+        <v>1057</v>
       </c>
       <c r="D430" s="89"/>
     </row>
@@ -10834,10 +10834,10 @@
         <v>4</v>
       </c>
       <c r="B431" s="89" t="s">
-        <v>879</v>
+        <v>1557</v>
       </c>
       <c r="C431" s="89" t="s">
-        <v>1557</v>
+        <v>1517</v>
       </c>
       <c r="D431" s="89"/>
     </row>
@@ -10883,7 +10883,7 @@
         <v>338</v>
       </c>
       <c r="C435" s="7" t="s">
-        <v>1233</v>
+        <v>1197</v>
       </c>
       <c r="D435" s="4"/>
     </row>
@@ -10907,7 +10907,7 @@
         <v>340</v>
       </c>
       <c r="C437" s="7" t="s">
-        <v>1234</v>
+        <v>1198</v>
       </c>
       <c r="D437" s="4"/>
     </row>
@@ -10931,7 +10931,7 @@
         <v>342</v>
       </c>
       <c r="C439" s="7" t="s">
-        <v>1235</v>
+        <v>1199</v>
       </c>
       <c r="D439" s="4"/>
     </row>
@@ -10979,7 +10979,7 @@
         <v>346</v>
       </c>
       <c r="C443" s="7" t="s">
-        <v>1236</v>
+        <v>1200</v>
       </c>
       <c r="D443" s="4"/>
     </row>
@@ -10991,7 +10991,7 @@
         <v>347</v>
       </c>
       <c r="C444" s="7" t="s">
-        <v>1237</v>
+        <v>1201</v>
       </c>
       <c r="D444" s="4"/>
     </row>
@@ -11003,7 +11003,7 @@
         <v>348</v>
       </c>
       <c r="C445" s="7" t="s">
-        <v>1238</v>
+        <v>1202</v>
       </c>
       <c r="D445" s="4"/>
     </row>
@@ -11015,7 +11015,7 @@
         <v>349</v>
       </c>
       <c r="C446" s="7" t="s">
-        <v>1239</v>
+        <v>1203</v>
       </c>
       <c r="D446" s="4"/>
     </row>
@@ -11027,7 +11027,7 @@
         <v>350</v>
       </c>
       <c r="C447" s="98" t="s">
-        <v>1251</v>
+        <v>1214</v>
       </c>
       <c r="D447" s="4"/>
     </row>
@@ -11039,7 +11039,7 @@
         <v>351</v>
       </c>
       <c r="C448" s="7" t="s">
-        <v>1240</v>
+        <v>1204</v>
       </c>
       <c r="D448" s="4"/>
     </row>
@@ -11048,10 +11048,10 @@
         <v>4</v>
       </c>
       <c r="B449" s="89" t="s">
-        <v>880</v>
+        <v>862</v>
       </c>
       <c r="C449" s="89" t="s">
-        <v>1093</v>
+        <v>1058</v>
       </c>
       <c r="D449" s="89"/>
     </row>
@@ -11060,10 +11060,10 @@
         <v>4</v>
       </c>
       <c r="B450" s="89" t="s">
-        <v>881</v>
+        <v>1558</v>
       </c>
       <c r="C450" s="89" t="s">
-        <v>1558</v>
+        <v>1518</v>
       </c>
       <c r="D450" s="89"/>
     </row>
@@ -11082,10 +11082,10 @@
         <v>4</v>
       </c>
       <c r="B452" s="89" t="s">
-        <v>882</v>
+        <v>863</v>
       </c>
       <c r="C452" s="89" t="s">
-        <v>1094</v>
+        <v>1059</v>
       </c>
       <c r="D452" s="89"/>
     </row>
@@ -11094,10 +11094,10 @@
         <v>4</v>
       </c>
       <c r="B453" s="89" t="s">
-        <v>883</v>
+        <v>1559</v>
       </c>
       <c r="C453" s="89" t="s">
-        <v>1559</v>
+        <v>1519</v>
       </c>
       <c r="D453" s="89"/>
     </row>
@@ -11106,7 +11106,7 @@
         <v>15</v>
       </c>
       <c r="B454" s="4" t="s">
-        <v>890</v>
+        <v>868</v>
       </c>
       <c r="C454" s="7" t="s">
         <v>57</v>
@@ -11142,7 +11142,7 @@
         <v>140</v>
       </c>
       <c r="B457" s="60" t="s">
-        <v>1232</v>
+        <v>1196</v>
       </c>
       <c r="C457" s="48" t="s">
         <v>821</v>
@@ -11205,7 +11205,7 @@
         <v>387</v>
       </c>
       <c r="C462" s="4" t="s">
-        <v>1095</v>
+        <v>1060</v>
       </c>
       <c r="D462" s="4"/>
     </row>
@@ -11217,7 +11217,7 @@
         <v>388</v>
       </c>
       <c r="C463" s="4" t="s">
-        <v>1096</v>
+        <v>1061</v>
       </c>
       <c r="D463" s="4"/>
     </row>
@@ -11229,7 +11229,7 @@
         <v>389</v>
       </c>
       <c r="C464" s="4" t="s">
-        <v>1097</v>
+        <v>1062</v>
       </c>
       <c r="D464" s="4"/>
     </row>
@@ -11241,7 +11241,7 @@
         <v>390</v>
       </c>
       <c r="C465" s="4" t="s">
-        <v>1098</v>
+        <v>1063</v>
       </c>
       <c r="D465" s="4"/>
     </row>
@@ -11253,7 +11253,7 @@
         <v>391</v>
       </c>
       <c r="C466" s="4" t="s">
-        <v>1099</v>
+        <v>1064</v>
       </c>
       <c r="D466" s="4"/>
     </row>
@@ -11265,7 +11265,7 @@
         <v>392</v>
       </c>
       <c r="C467" s="4" t="s">
-        <v>1100</v>
+        <v>1065</v>
       </c>
       <c r="D467" s="4"/>
     </row>
@@ -11277,7 +11277,7 @@
         <v>393</v>
       </c>
       <c r="C468" s="4" t="s">
-        <v>1101</v>
+        <v>1066</v>
       </c>
       <c r="D468" s="4"/>
     </row>
@@ -11289,7 +11289,7 @@
         <v>394</v>
       </c>
       <c r="C469" s="4" t="s">
-        <v>1102</v>
+        <v>1067</v>
       </c>
       <c r="D469" s="4"/>
     </row>
@@ -11301,7 +11301,7 @@
         <v>395</v>
       </c>
       <c r="C470" s="4" t="s">
-        <v>1103</v>
+        <v>1068</v>
       </c>
       <c r="D470" s="4"/>
     </row>
@@ -11313,7 +11313,7 @@
         <v>396</v>
       </c>
       <c r="C471" s="4" t="s">
-        <v>1104</v>
+        <v>1069</v>
       </c>
       <c r="D471" s="4"/>
     </row>
@@ -11325,7 +11325,7 @@
         <v>397</v>
       </c>
       <c r="C472" s="4" t="s">
-        <v>1105</v>
+        <v>1070</v>
       </c>
       <c r="D472" s="4"/>
     </row>
@@ -11337,7 +11337,7 @@
         <v>398</v>
       </c>
       <c r="C473" s="4" t="s">
-        <v>1106</v>
+        <v>1071</v>
       </c>
       <c r="D473" s="4"/>
     </row>
@@ -11349,7 +11349,7 @@
         <v>399</v>
       </c>
       <c r="C474" s="4" t="s">
-        <v>1107</v>
+        <v>1072</v>
       </c>
       <c r="D474" s="4"/>
     </row>
@@ -11361,7 +11361,7 @@
         <v>400</v>
       </c>
       <c r="C475" s="4" t="s">
-        <v>1108</v>
+        <v>1073</v>
       </c>
       <c r="D475" s="4"/>
     </row>
@@ -11373,7 +11373,7 @@
         <v>401</v>
       </c>
       <c r="C476" s="4" t="s">
-        <v>1109</v>
+        <v>1074</v>
       </c>
       <c r="D476" s="4"/>
     </row>
@@ -11385,7 +11385,7 @@
         <v>402</v>
       </c>
       <c r="C477" s="4" t="s">
-        <v>1110</v>
+        <v>1075</v>
       </c>
       <c r="D477" s="4"/>
     </row>
@@ -11397,7 +11397,7 @@
         <v>403</v>
       </c>
       <c r="C478" s="4" t="s">
-        <v>1111</v>
+        <v>1076</v>
       </c>
       <c r="D478" s="4"/>
     </row>
@@ -11409,7 +11409,7 @@
         <v>404</v>
       </c>
       <c r="C479" s="4" t="s">
-        <v>1112</v>
+        <v>1077</v>
       </c>
       <c r="D479" s="4"/>
     </row>
@@ -11421,7 +11421,7 @@
         <v>405</v>
       </c>
       <c r="C480" s="4" t="s">
-        <v>1113</v>
+        <v>1078</v>
       </c>
       <c r="D480" s="4"/>
     </row>
@@ -11433,7 +11433,7 @@
         <v>406</v>
       </c>
       <c r="C481" s="4" t="s">
-        <v>1114</v>
+        <v>1079</v>
       </c>
       <c r="D481" s="4"/>
     </row>
@@ -11445,7 +11445,7 @@
         <v>407</v>
       </c>
       <c r="C482" s="4" t="s">
-        <v>1115</v>
+        <v>1080</v>
       </c>
       <c r="D482" s="4"/>
     </row>
@@ -11457,7 +11457,7 @@
         <v>408</v>
       </c>
       <c r="C483" s="4" t="s">
-        <v>1116</v>
+        <v>1081</v>
       </c>
       <c r="D483" s="4"/>
     </row>
@@ -11469,7 +11469,7 @@
         <v>409</v>
       </c>
       <c r="C484" s="4" t="s">
-        <v>1117</v>
+        <v>1082</v>
       </c>
       <c r="D484" s="4"/>
     </row>
@@ -11481,7 +11481,7 @@
         <v>410</v>
       </c>
       <c r="C485" s="4" t="s">
-        <v>1118</v>
+        <v>1083</v>
       </c>
       <c r="D485" s="4"/>
     </row>
@@ -11493,7 +11493,7 @@
         <v>411</v>
       </c>
       <c r="C486" s="4" t="s">
-        <v>1119</v>
+        <v>1084</v>
       </c>
       <c r="D486" s="4"/>
     </row>
@@ -11505,7 +11505,7 @@
         <v>412</v>
       </c>
       <c r="C487" s="4" t="s">
-        <v>1120</v>
+        <v>1085</v>
       </c>
       <c r="D487" s="4"/>
     </row>
@@ -11517,7 +11517,7 @@
         <v>413</v>
       </c>
       <c r="C488" s="4" t="s">
-        <v>1121</v>
+        <v>1086</v>
       </c>
       <c r="D488" s="4"/>
     </row>
@@ -11529,7 +11529,7 @@
         <v>414</v>
       </c>
       <c r="C489" s="4" t="s">
-        <v>1122</v>
+        <v>1087</v>
       </c>
       <c r="D489" s="4"/>
     </row>
@@ -11541,7 +11541,7 @@
         <v>415</v>
       </c>
       <c r="C490" s="4" t="s">
-        <v>1123</v>
+        <v>1088</v>
       </c>
       <c r="D490" s="4"/>
     </row>
@@ -11553,7 +11553,7 @@
         <v>416</v>
       </c>
       <c r="C491" s="4" t="s">
-        <v>1124</v>
+        <v>1089</v>
       </c>
       <c r="D491" s="4"/>
     </row>
@@ -11565,7 +11565,7 @@
         <v>417</v>
       </c>
       <c r="C492" s="4" t="s">
-        <v>1125</v>
+        <v>1090</v>
       </c>
       <c r="D492" s="4"/>
     </row>
@@ -11577,7 +11577,7 @@
         <v>418</v>
       </c>
       <c r="C493" s="4" t="s">
-        <v>1126</v>
+        <v>1091</v>
       </c>
       <c r="D493" s="4"/>
     </row>
@@ -11589,7 +11589,7 @@
         <v>419</v>
       </c>
       <c r="C494" s="4" t="s">
-        <v>1127</v>
+        <v>1092</v>
       </c>
       <c r="D494" s="4"/>
     </row>
@@ -11601,7 +11601,7 @@
         <v>420</v>
       </c>
       <c r="C495" s="4" t="s">
-        <v>1128</v>
+        <v>1093</v>
       </c>
       <c r="D495" s="4"/>
     </row>
@@ -11613,7 +11613,7 @@
         <v>421</v>
       </c>
       <c r="C496" s="4" t="s">
-        <v>1129</v>
+        <v>1094</v>
       </c>
       <c r="D496" s="4"/>
     </row>
@@ -11625,7 +11625,7 @@
         <v>422</v>
       </c>
       <c r="C497" s="4" t="s">
-        <v>1130</v>
+        <v>1095</v>
       </c>
       <c r="D497" s="4"/>
     </row>
@@ -11637,7 +11637,7 @@
         <v>423</v>
       </c>
       <c r="C498" s="4" t="s">
-        <v>1131</v>
+        <v>1096</v>
       </c>
       <c r="D498" s="4"/>
     </row>
@@ -11649,7 +11649,7 @@
         <v>424</v>
       </c>
       <c r="C499" s="4" t="s">
-        <v>1132</v>
+        <v>1097</v>
       </c>
       <c r="D499" s="4"/>
     </row>
@@ -11661,7 +11661,7 @@
         <v>425</v>
       </c>
       <c r="C500" s="4" t="s">
-        <v>1133</v>
+        <v>1098</v>
       </c>
       <c r="D500" s="4"/>
     </row>
@@ -11673,7 +11673,7 @@
         <v>426</v>
       </c>
       <c r="C501" s="4" t="s">
-        <v>1134</v>
+        <v>1099</v>
       </c>
       <c r="D501" s="4"/>
     </row>
@@ -11685,7 +11685,7 @@
         <v>427</v>
       </c>
       <c r="C502" s="4" t="s">
-        <v>1135</v>
+        <v>1100</v>
       </c>
       <c r="D502" s="4"/>
     </row>
@@ -11697,7 +11697,7 @@
         <v>428</v>
       </c>
       <c r="C503" s="4" t="s">
-        <v>1136</v>
+        <v>1101</v>
       </c>
       <c r="D503" s="4"/>
     </row>
@@ -11709,7 +11709,7 @@
         <v>429</v>
       </c>
       <c r="C504" s="4" t="s">
-        <v>1137</v>
+        <v>1102</v>
       </c>
       <c r="D504" s="4"/>
     </row>
@@ -11721,7 +11721,7 @@
         <v>430</v>
       </c>
       <c r="C505" s="4" t="s">
-        <v>1138</v>
+        <v>1103</v>
       </c>
       <c r="D505" s="4"/>
     </row>
@@ -11733,7 +11733,7 @@
         <v>431</v>
       </c>
       <c r="C506" s="4" t="s">
-        <v>1139</v>
+        <v>1104</v>
       </c>
       <c r="D506" s="4"/>
     </row>
@@ -11745,7 +11745,7 @@
         <v>432</v>
       </c>
       <c r="C507" s="4" t="s">
-        <v>1140</v>
+        <v>1105</v>
       </c>
       <c r="D507" s="4"/>
     </row>
@@ -11757,7 +11757,7 @@
         <v>433</v>
       </c>
       <c r="C508" s="4" t="s">
-        <v>1141</v>
+        <v>1106</v>
       </c>
       <c r="D508" s="4"/>
     </row>
@@ -11766,7 +11766,7 @@
         <v>141</v>
       </c>
       <c r="B509" s="60" t="s">
-        <v>884</v>
+        <v>864</v>
       </c>
       <c r="C509" s="48"/>
       <c r="D509" s="60"/>
@@ -11776,10 +11776,10 @@
         <v>4</v>
       </c>
       <c r="B510" s="89" t="s">
-        <v>885</v>
+        <v>865</v>
       </c>
       <c r="C510" s="89" t="s">
-        <v>1241</v>
+        <v>1205</v>
       </c>
       <c r="D510" s="89"/>
     </row>
@@ -11788,10 +11788,10 @@
         <v>4</v>
       </c>
       <c r="B511" s="89" t="s">
-        <v>886</v>
+        <v>1560</v>
       </c>
       <c r="C511" s="89" t="s">
-        <v>1560</v>
+        <v>1520</v>
       </c>
       <c r="D511" s="89"/>
     </row>
@@ -11834,7 +11834,7 @@
         <v>5</v>
       </c>
       <c r="B515" s="4" t="s">
-        <v>1142</v>
+        <v>1107</v>
       </c>
       <c r="C515" s="7" t="s">
         <v>438</v>
@@ -11846,7 +11846,7 @@
         <v>6</v>
       </c>
       <c r="B516" s="4" t="s">
-        <v>1143</v>
+        <v>1108</v>
       </c>
       <c r="C516" s="7" t="s">
         <v>439</v>
@@ -11858,7 +11858,7 @@
         <v>5</v>
       </c>
       <c r="B517" s="4" t="s">
-        <v>1144</v>
+        <v>1109</v>
       </c>
       <c r="C517" s="7" t="s">
         <v>440</v>
@@ -11870,7 +11870,7 @@
         <v>6</v>
       </c>
       <c r="B518" s="4" t="s">
-        <v>1145</v>
+        <v>1110</v>
       </c>
       <c r="C518" s="7" t="s">
         <v>441</v>
@@ -11882,7 +11882,7 @@
         <v>5</v>
       </c>
       <c r="B519" s="4" t="s">
-        <v>1146</v>
+        <v>1111</v>
       </c>
       <c r="C519" s="7" t="s">
         <v>442</v>
@@ -11894,7 +11894,7 @@
         <v>5</v>
       </c>
       <c r="B520" s="4" t="s">
-        <v>1147</v>
+        <v>1112</v>
       </c>
       <c r="C520" s="7" t="s">
         <v>443</v>
@@ -11906,7 +11906,7 @@
         <v>15</v>
       </c>
       <c r="B521" s="4" t="s">
-        <v>1148</v>
+        <v>1113</v>
       </c>
       <c r="C521" s="7" t="s">
         <v>444</v>
@@ -11918,7 +11918,7 @@
         <v>5</v>
       </c>
       <c r="B522" s="4" t="s">
-        <v>1149</v>
+        <v>1114</v>
       </c>
       <c r="C522" s="7" t="s">
         <v>445</v>
@@ -11930,7 +11930,7 @@
         <v>5</v>
       </c>
       <c r="B523" s="4" t="s">
-        <v>1150</v>
+        <v>1115</v>
       </c>
       <c r="C523" s="7" t="s">
         <v>446</v>
@@ -11942,7 +11942,7 @@
         <v>5</v>
       </c>
       <c r="B524" s="4" t="s">
-        <v>1151</v>
+        <v>1116</v>
       </c>
       <c r="C524" s="7" t="s">
         <v>447</v>
@@ -11954,7 +11954,7 @@
         <v>6</v>
       </c>
       <c r="B525" s="4" t="s">
-        <v>1152</v>
+        <v>1117</v>
       </c>
       <c r="C525" s="7" t="s">
         <v>448</v>
@@ -11966,7 +11966,7 @@
         <v>5</v>
       </c>
       <c r="B526" s="4" t="s">
-        <v>1153</v>
+        <v>1118</v>
       </c>
       <c r="C526" s="7" t="s">
         <v>449</v>
@@ -11978,7 +11978,7 @@
         <v>5</v>
       </c>
       <c r="B527" s="4" t="s">
-        <v>1154</v>
+        <v>1119</v>
       </c>
       <c r="C527" s="7" t="s">
         <v>450</v>
@@ -11990,7 +11990,7 @@
         <v>5</v>
       </c>
       <c r="B528" s="4" t="s">
-        <v>1155</v>
+        <v>1120</v>
       </c>
       <c r="C528" s="7" t="s">
         <v>451</v>
@@ -12002,7 +12002,7 @@
         <v>5</v>
       </c>
       <c r="B529" s="4" t="s">
-        <v>1156</v>
+        <v>1121</v>
       </c>
       <c r="C529" s="7" t="s">
         <v>452</v>
@@ -12014,7 +12014,7 @@
         <v>5</v>
       </c>
       <c r="B530" s="4" t="s">
-        <v>1157</v>
+        <v>1122</v>
       </c>
       <c r="C530" s="7" t="s">
         <v>453</v>
@@ -12026,7 +12026,7 @@
         <v>5</v>
       </c>
       <c r="B531" s="4" t="s">
-        <v>1158</v>
+        <v>1123</v>
       </c>
       <c r="C531" s="7" t="s">
         <v>454</v>
@@ -12038,7 +12038,7 @@
         <v>5</v>
       </c>
       <c r="B532" s="4" t="s">
-        <v>1159</v>
+        <v>1124</v>
       </c>
       <c r="C532" s="7" t="s">
         <v>455</v>
@@ -12050,7 +12050,7 @@
         <v>5</v>
       </c>
       <c r="B533" s="4" t="s">
-        <v>1160</v>
+        <v>1125</v>
       </c>
       <c r="C533" s="7" t="s">
         <v>456</v>
@@ -12062,7 +12062,7 @@
         <v>5</v>
       </c>
       <c r="B534" s="4" t="s">
-        <v>1161</v>
+        <v>1126</v>
       </c>
       <c r="C534" s="7" t="s">
         <v>457</v>
@@ -12074,7 +12074,7 @@
         <v>5</v>
       </c>
       <c r="B535" s="4" t="s">
-        <v>1162</v>
+        <v>1127</v>
       </c>
       <c r="C535" s="7" t="s">
         <v>458</v>
@@ -12086,7 +12086,7 @@
         <v>5</v>
       </c>
       <c r="B536" s="4" t="s">
-        <v>1163</v>
+        <v>1128</v>
       </c>
       <c r="C536" s="7" t="s">
         <v>459</v>
@@ -12098,7 +12098,7 @@
         <v>5</v>
       </c>
       <c r="B537" s="4" t="s">
-        <v>1164</v>
+        <v>1129</v>
       </c>
       <c r="C537" s="7" t="s">
         <v>460</v>
@@ -12110,7 +12110,7 @@
         <v>5</v>
       </c>
       <c r="B538" s="4" t="s">
-        <v>1165</v>
+        <v>1130</v>
       </c>
       <c r="C538" s="7" t="s">
         <v>461</v>
@@ -12122,7 +12122,7 @@
         <v>5</v>
       </c>
       <c r="B539" s="4" t="s">
-        <v>1166</v>
+        <v>1131</v>
       </c>
       <c r="C539" s="7" t="s">
         <v>462</v>
@@ -12134,7 +12134,7 @@
         <v>5</v>
       </c>
       <c r="B540" s="4" t="s">
-        <v>1167</v>
+        <v>1132</v>
       </c>
       <c r="C540" s="7" t="s">
         <v>463</v>
@@ -12146,7 +12146,7 @@
         <v>5</v>
       </c>
       <c r="B541" s="4" t="s">
-        <v>1168</v>
+        <v>1133</v>
       </c>
       <c r="C541" s="7" t="s">
         <v>464</v>
@@ -12158,7 +12158,7 @@
         <v>5</v>
       </c>
       <c r="B542" s="4" t="s">
-        <v>1169</v>
+        <v>1134</v>
       </c>
       <c r="C542" s="7" t="s">
         <v>465</v>
@@ -12170,10 +12170,10 @@
         <v>5</v>
       </c>
       <c r="B543" s="4" t="s">
-        <v>1170</v>
+        <v>1135</v>
       </c>
       <c r="C543" s="7" t="s">
-        <v>1261</v>
+        <v>1224</v>
       </c>
       <c r="D543" s="4"/>
     </row>
@@ -12182,7 +12182,7 @@
         <v>5</v>
       </c>
       <c r="B544" s="4" t="s">
-        <v>1171</v>
+        <v>1136</v>
       </c>
       <c r="C544" s="7" t="s">
         <v>466</v>
@@ -12204,10 +12204,10 @@
         <v>4</v>
       </c>
       <c r="B546" s="89" t="s">
-        <v>887</v>
+        <v>866</v>
       </c>
       <c r="C546" s="89" t="s">
-        <v>1172</v>
+        <v>1137</v>
       </c>
       <c r="D546" s="89"/>
     </row>
@@ -12216,10 +12216,10 @@
         <v>4</v>
       </c>
       <c r="B547" s="89" t="s">
-        <v>888</v>
+        <v>1561</v>
       </c>
       <c r="C547" s="89" t="s">
-        <v>1561</v>
+        <v>1521</v>
       </c>
       <c r="D547" s="89"/>
     </row>
@@ -12228,7 +12228,7 @@
         <v>15</v>
       </c>
       <c r="B548" s="4" t="s">
-        <v>889</v>
+        <v>867</v>
       </c>
       <c r="C548" s="7" t="s">
         <v>57</v>
@@ -12274,10 +12274,10 @@
         <v>4</v>
       </c>
       <c r="B552" s="4" t="s">
-        <v>891</v>
+        <v>869</v>
       </c>
       <c r="C552" s="64" t="s">
-        <v>1173</v>
+        <v>1138</v>
       </c>
       <c r="D552" s="4"/>
     </row>
@@ -12286,10 +12286,10 @@
         <v>4</v>
       </c>
       <c r="B553" s="4" t="s">
-        <v>892</v>
+        <v>1562</v>
       </c>
       <c r="C553" s="7" t="s">
-        <v>1562</v>
+        <v>1522</v>
       </c>
       <c r="D553" s="4"/>
     </row>
@@ -12346,10 +12346,10 @@
         <v>4</v>
       </c>
       <c r="B558" s="85" t="s">
-        <v>893</v>
+        <v>870</v>
       </c>
       <c r="C558" s="90" t="s">
-        <v>1174</v>
+        <v>1139</v>
       </c>
       <c r="D558" s="85"/>
     </row>
@@ -12358,10 +12358,10 @@
         <v>4</v>
       </c>
       <c r="B559" s="85" t="s">
-        <v>894</v>
+        <v>1563</v>
       </c>
       <c r="C559" s="85" t="s">
-        <v>1563</v>
+        <v>1523</v>
       </c>
       <c r="D559" s="85"/>
     </row>
@@ -12430,10 +12430,10 @@
         <v>4</v>
       </c>
       <c r="B565" s="85" t="s">
-        <v>895</v>
+        <v>871</v>
       </c>
       <c r="C565" s="90" t="s">
-        <v>1175</v>
+        <v>1140</v>
       </c>
       <c r="D565" s="85"/>
     </row>
@@ -12442,10 +12442,10 @@
         <v>4</v>
       </c>
       <c r="B566" s="85" t="s">
-        <v>896</v>
+        <v>1564</v>
       </c>
       <c r="C566" s="85" t="s">
-        <v>1564</v>
+        <v>1524</v>
       </c>
       <c r="D566" s="85"/>
     </row>
@@ -12502,10 +12502,10 @@
         <v>4</v>
       </c>
       <c r="B571" s="85" t="s">
-        <v>897</v>
+        <v>872</v>
       </c>
       <c r="C571" s="90" t="s">
-        <v>1176</v>
+        <v>1141</v>
       </c>
       <c r="D571" s="85"/>
     </row>
@@ -12514,10 +12514,10 @@
         <v>4</v>
       </c>
       <c r="B572" s="85" t="s">
-        <v>898</v>
+        <v>1565</v>
       </c>
       <c r="C572" s="85" t="s">
-        <v>1565</v>
+        <v>1525</v>
       </c>
       <c r="D572" s="85"/>
     </row>
@@ -12586,10 +12586,10 @@
         <v>4</v>
       </c>
       <c r="B578" s="85" t="s">
-        <v>899</v>
+        <v>873</v>
       </c>
       <c r="C578" s="90" t="s">
-        <v>1177</v>
+        <v>1142</v>
       </c>
       <c r="D578" s="85"/>
     </row>
@@ -12598,10 +12598,10 @@
         <v>4</v>
       </c>
       <c r="B579" s="85" t="s">
-        <v>900</v>
+        <v>1566</v>
       </c>
       <c r="C579" s="85" t="s">
-        <v>1566</v>
+        <v>1526</v>
       </c>
       <c r="D579" s="85"/>
     </row>
@@ -12658,10 +12658,10 @@
         <v>4</v>
       </c>
       <c r="B584" s="85" t="s">
-        <v>901</v>
+        <v>874</v>
       </c>
       <c r="C584" s="90" t="s">
-        <v>1178</v>
+        <v>1143</v>
       </c>
       <c r="D584" s="85"/>
     </row>
@@ -12670,10 +12670,10 @@
         <v>4</v>
       </c>
       <c r="B585" s="85" t="s">
-        <v>902</v>
+        <v>1567</v>
       </c>
       <c r="C585" s="85" t="s">
-        <v>1567</v>
+        <v>1527</v>
       </c>
       <c r="D585" s="85"/>
     </row>
@@ -12718,10 +12718,10 @@
         <v>4</v>
       </c>
       <c r="B589" s="85" t="s">
-        <v>903</v>
+        <v>875</v>
       </c>
       <c r="C589" s="90" t="s">
-        <v>1179</v>
+        <v>1144</v>
       </c>
       <c r="D589" s="85"/>
     </row>
@@ -12730,10 +12730,10 @@
         <v>4</v>
       </c>
       <c r="B590" s="85" t="s">
-        <v>904</v>
+        <v>1568</v>
       </c>
       <c r="C590" s="85" t="s">
-        <v>1568</v>
+        <v>1528</v>
       </c>
       <c r="D590" s="85"/>
     </row>
@@ -12802,10 +12802,10 @@
         <v>4</v>
       </c>
       <c r="B596" s="85" t="s">
-        <v>905</v>
+        <v>876</v>
       </c>
       <c r="C596" s="90" t="s">
-        <v>1180</v>
+        <v>1145</v>
       </c>
       <c r="D596" s="85"/>
     </row>
@@ -12814,10 +12814,10 @@
         <v>4</v>
       </c>
       <c r="B597" s="85" t="s">
-        <v>906</v>
+        <v>1569</v>
       </c>
       <c r="C597" s="85" t="s">
-        <v>1569</v>
+        <v>1529</v>
       </c>
       <c r="D597" s="85"/>
     </row>
@@ -12886,10 +12886,10 @@
         <v>4</v>
       </c>
       <c r="B603" s="85" t="s">
-        <v>907</v>
+        <v>877</v>
       </c>
       <c r="C603" s="90" t="s">
-        <v>1181</v>
+        <v>1146</v>
       </c>
       <c r="D603" s="85"/>
     </row>
@@ -12898,10 +12898,10 @@
         <v>4</v>
       </c>
       <c r="B604" s="85" t="s">
-        <v>908</v>
+        <v>1570</v>
       </c>
       <c r="C604" s="85" t="s">
-        <v>1570</v>
+        <v>1530</v>
       </c>
       <c r="D604" s="85"/>
     </row>
@@ -12923,7 +12923,7 @@
         <v>541</v>
       </c>
       <c r="C606" s="29" t="s">
-        <v>1182</v>
+        <v>1147</v>
       </c>
       <c r="D606" s="73"/>
     </row>
@@ -12935,7 +12935,7 @@
         <v>552</v>
       </c>
       <c r="C607" s="7" t="s">
-        <v>1183</v>
+        <v>1148</v>
       </c>
       <c r="D607" s="4"/>
     </row>
@@ -12947,7 +12947,7 @@
         <v>553</v>
       </c>
       <c r="C608" s="7" t="s">
-        <v>1184</v>
+        <v>1149</v>
       </c>
       <c r="D608" s="4"/>
     </row>
@@ -12959,7 +12959,7 @@
         <v>554</v>
       </c>
       <c r="C609" s="7" t="s">
-        <v>1185</v>
+        <v>1150</v>
       </c>
       <c r="D609" s="4"/>
     </row>
@@ -12971,7 +12971,7 @@
         <v>555</v>
       </c>
       <c r="C610" s="7" t="s">
-        <v>1186</v>
+        <v>1151</v>
       </c>
       <c r="D610" s="4"/>
     </row>
@@ -12983,7 +12983,7 @@
         <v>556</v>
       </c>
       <c r="C611" s="7" t="s">
-        <v>1187</v>
+        <v>1152</v>
       </c>
       <c r="D611" s="4"/>
     </row>
@@ -12995,7 +12995,7 @@
         <v>557</v>
       </c>
       <c r="C612" s="7" t="s">
-        <v>1188</v>
+        <v>1153</v>
       </c>
       <c r="D612" s="4"/>
     </row>
@@ -13004,10 +13004,10 @@
         <v>4</v>
       </c>
       <c r="B613" s="85" t="s">
-        <v>1189</v>
+        <v>1154</v>
       </c>
       <c r="C613" s="90" t="s">
-        <v>1190</v>
+        <v>1155</v>
       </c>
       <c r="D613" s="85"/>
     </row>
@@ -13016,10 +13016,10 @@
         <v>4</v>
       </c>
       <c r="B614" s="85" t="s">
-        <v>1191</v>
+        <v>1571</v>
       </c>
       <c r="C614" s="85" t="s">
-        <v>1571</v>
+        <v>1531</v>
       </c>
       <c r="D614" s="85"/>
     </row>
@@ -13038,10 +13038,10 @@
         <v>4</v>
       </c>
       <c r="B616" s="89" t="s">
-        <v>909</v>
+        <v>878</v>
       </c>
       <c r="C616" s="89" t="s">
-        <v>1192</v>
+        <v>1156</v>
       </c>
       <c r="D616" s="89"/>
     </row>
@@ -13050,10 +13050,10 @@
         <v>4</v>
       </c>
       <c r="B617" s="89" t="s">
-        <v>910</v>
+        <v>1572</v>
       </c>
       <c r="C617" s="89" t="s">
-        <v>1572</v>
+        <v>1532</v>
       </c>
       <c r="D617" s="89"/>
     </row>
@@ -13062,7 +13062,7 @@
         <v>15</v>
       </c>
       <c r="B618" s="4" t="s">
-        <v>911</v>
+        <v>879</v>
       </c>
       <c r="C618" s="7" t="s">
         <v>57</v>
@@ -13084,10 +13084,10 @@
         <v>140</v>
       </c>
       <c r="B620" s="76" t="s">
-        <v>1291</v>
+        <v>1254</v>
       </c>
       <c r="C620" s="17" t="s">
-        <v>1277</v>
+        <v>1240</v>
       </c>
       <c r="D620" s="76"/>
     </row>
@@ -13096,10 +13096,10 @@
         <v>6</v>
       </c>
       <c r="B621" s="4" t="s">
-        <v>1278</v>
+        <v>1241</v>
       </c>
       <c r="C621" s="7" t="s">
-        <v>1264</v>
+        <v>1227</v>
       </c>
       <c r="D621" s="4"/>
     </row>
@@ -13108,10 +13108,10 @@
         <v>6</v>
       </c>
       <c r="B622" s="4" t="s">
-        <v>1279</v>
+        <v>1242</v>
       </c>
       <c r="C622" s="7" t="s">
-        <v>1265</v>
+        <v>1228</v>
       </c>
       <c r="D622" s="4"/>
     </row>
@@ -13120,10 +13120,10 @@
         <v>6</v>
       </c>
       <c r="B623" s="4" t="s">
-        <v>1280</v>
+        <v>1243</v>
       </c>
       <c r="C623" s="7" t="s">
-        <v>1266</v>
+        <v>1229</v>
       </c>
       <c r="D623" s="4"/>
     </row>
@@ -13132,10 +13132,10 @@
         <v>6</v>
       </c>
       <c r="B624" s="4" t="s">
-        <v>1281</v>
+        <v>1244</v>
       </c>
       <c r="C624" s="7" t="s">
-        <v>1267</v>
+        <v>1230</v>
       </c>
       <c r="D624" s="4"/>
     </row>
@@ -13144,10 +13144,10 @@
         <v>6</v>
       </c>
       <c r="B625" s="4" t="s">
-        <v>1282</v>
+        <v>1245</v>
       </c>
       <c r="C625" s="7" t="s">
-        <v>1268</v>
+        <v>1231</v>
       </c>
       <c r="D625" s="4"/>
     </row>
@@ -13156,10 +13156,10 @@
         <v>6</v>
       </c>
       <c r="B626" s="4" t="s">
-        <v>1283</v>
+        <v>1246</v>
       </c>
       <c r="C626" s="7" t="s">
-        <v>1269</v>
+        <v>1232</v>
       </c>
       <c r="D626" s="4"/>
     </row>
@@ -13168,10 +13168,10 @@
         <v>6</v>
       </c>
       <c r="B627" s="4" t="s">
-        <v>1284</v>
+        <v>1247</v>
       </c>
       <c r="C627" s="7" t="s">
-        <v>1270</v>
+        <v>1233</v>
       </c>
       <c r="D627" s="4"/>
     </row>
@@ -13180,10 +13180,10 @@
         <v>6</v>
       </c>
       <c r="B628" s="4" t="s">
-        <v>1285</v>
+        <v>1248</v>
       </c>
       <c r="C628" s="7" t="s">
-        <v>1271</v>
+        <v>1234</v>
       </c>
       <c r="D628" s="4"/>
     </row>
@@ -13192,10 +13192,10 @@
         <v>6</v>
       </c>
       <c r="B629" s="4" t="s">
-        <v>1286</v>
+        <v>1249</v>
       </c>
       <c r="C629" s="7" t="s">
-        <v>1272</v>
+        <v>1235</v>
       </c>
       <c r="D629" s="4"/>
     </row>
@@ -13204,10 +13204,10 @@
         <v>6</v>
       </c>
       <c r="B630" s="4" t="s">
-        <v>1287</v>
+        <v>1250</v>
       </c>
       <c r="C630" s="7" t="s">
-        <v>1273</v>
+        <v>1236</v>
       </c>
       <c r="D630" s="4"/>
     </row>
@@ -13216,10 +13216,10 @@
         <v>6</v>
       </c>
       <c r="B631" s="4" t="s">
-        <v>1288</v>
+        <v>1251</v>
       </c>
       <c r="C631" s="7" t="s">
-        <v>1274</v>
+        <v>1237</v>
       </c>
       <c r="D631" s="4"/>
     </row>
@@ -13228,10 +13228,10 @@
         <v>6</v>
       </c>
       <c r="B632" s="4" t="s">
-        <v>1289</v>
+        <v>1252</v>
       </c>
       <c r="C632" s="7" t="s">
-        <v>1275</v>
+        <v>1238</v>
       </c>
       <c r="D632" s="4"/>
     </row>
@@ -13240,10 +13240,10 @@
         <v>6</v>
       </c>
       <c r="B633" s="4" t="s">
-        <v>1290</v>
+        <v>1253</v>
       </c>
       <c r="C633" s="7" t="s">
-        <v>1276</v>
+        <v>1239</v>
       </c>
       <c r="D633" s="4"/>
     </row>
@@ -13252,7 +13252,7 @@
         <v>15</v>
       </c>
       <c r="B634" s="4" t="s">
-        <v>1292</v>
+        <v>1255</v>
       </c>
       <c r="C634" s="7" t="s">
         <v>57</v>
@@ -13264,7 +13264,7 @@
         <v>141</v>
       </c>
       <c r="B635" s="76" t="s">
-        <v>1263</v>
+        <v>1226</v>
       </c>
       <c r="C635" s="21"/>
       <c r="D635" s="76"/>
@@ -13274,10 +13274,10 @@
         <v>140</v>
       </c>
       <c r="B636" s="25" t="s">
-        <v>1530</v>
+        <v>1490</v>
       </c>
       <c r="C636" s="27" t="s">
-        <v>1293</v>
+        <v>1256</v>
       </c>
       <c r="D636" s="25"/>
     </row>
@@ -13289,7 +13289,7 @@
         <v>221</v>
       </c>
       <c r="C637" s="7" t="s">
-        <v>1294</v>
+        <v>1257</v>
       </c>
       <c r="D637" s="4"/>
     </row>
@@ -13301,7 +13301,7 @@
         <v>222</v>
       </c>
       <c r="C638" s="7" t="s">
-        <v>1295</v>
+        <v>1258</v>
       </c>
       <c r="D638" s="4"/>
     </row>
@@ -13313,7 +13313,7 @@
         <v>223</v>
       </c>
       <c r="C639" s="7" t="s">
-        <v>1296</v>
+        <v>1259</v>
       </c>
       <c r="D639" s="4"/>
     </row>
@@ -13325,7 +13325,7 @@
         <v>224</v>
       </c>
       <c r="C640" s="7" t="s">
-        <v>1297</v>
+        <v>1260</v>
       </c>
       <c r="D640" s="4"/>
     </row>
@@ -13337,7 +13337,7 @@
         <v>225</v>
       </c>
       <c r="C641" s="7" t="s">
-        <v>1298</v>
+        <v>1261</v>
       </c>
       <c r="D641" s="4"/>
     </row>
@@ -13349,7 +13349,7 @@
         <v>226</v>
       </c>
       <c r="C642" s="7" t="s">
-        <v>1299</v>
+        <v>1262</v>
       </c>
       <c r="D642" s="4"/>
     </row>
@@ -13361,7 +13361,7 @@
         <v>227</v>
       </c>
       <c r="C643" s="7" t="s">
-        <v>1300</v>
+        <v>1263</v>
       </c>
       <c r="D643" s="4"/>
     </row>
@@ -13373,7 +13373,7 @@
         <v>228</v>
       </c>
       <c r="C644" s="7" t="s">
-        <v>1301</v>
+        <v>1264</v>
       </c>
       <c r="D644" s="4"/>
     </row>
@@ -13385,7 +13385,7 @@
         <v>229</v>
       </c>
       <c r="C645" s="7" t="s">
-        <v>1302</v>
+        <v>1265</v>
       </c>
       <c r="D645" s="4"/>
     </row>
@@ -13394,10 +13394,10 @@
         <v>4</v>
       </c>
       <c r="B646" s="89" t="s">
-        <v>1303</v>
+        <v>1266</v>
       </c>
       <c r="C646" s="89" t="s">
-        <v>1262</v>
+        <v>1225</v>
       </c>
       <c r="D646" s="89"/>
     </row>
@@ -13406,10 +13406,10 @@
         <v>4</v>
       </c>
       <c r="B647" s="89" t="s">
-        <v>1304</v>
+        <v>1573</v>
       </c>
       <c r="C647" s="89" t="s">
-        <v>1573</v>
+        <v>1533</v>
       </c>
       <c r="D647" s="89"/>
     </row>
@@ -13428,10 +13428,10 @@
         <v>140</v>
       </c>
       <c r="B649" s="91" t="s">
-        <v>1193</v>
+        <v>1157</v>
       </c>
       <c r="C649" s="15" t="s">
-        <v>1305</v>
+        <v>1267</v>
       </c>
       <c r="D649" s="66"/>
     </row>
@@ -13440,10 +13440,10 @@
         <v>140</v>
       </c>
       <c r="B650" s="93" t="s">
-        <v>1200</v>
+        <v>1164</v>
       </c>
       <c r="C650" s="93" t="s">
-        <v>1201</v>
+        <v>1165</v>
       </c>
       <c r="D650" s="93"/>
     </row>
@@ -13452,10 +13452,10 @@
         <v>6</v>
       </c>
       <c r="B651" s="87" t="s">
-        <v>1194</v>
+        <v>1158</v>
       </c>
       <c r="C651" s="4" t="s">
-        <v>1311</v>
+        <v>1273</v>
       </c>
       <c r="D651" s="4"/>
     </row>
@@ -13464,10 +13464,10 @@
         <v>6</v>
       </c>
       <c r="B652" s="87" t="s">
-        <v>1195</v>
+        <v>1159</v>
       </c>
       <c r="C652" s="4" t="s">
-        <v>1306</v>
+        <v>1268</v>
       </c>
       <c r="D652" s="4"/>
     </row>
@@ -13476,10 +13476,10 @@
         <v>6</v>
       </c>
       <c r="B653" s="87" t="s">
-        <v>1196</v>
+        <v>1160</v>
       </c>
       <c r="C653" s="4" t="s">
-        <v>1307</v>
+        <v>1269</v>
       </c>
       <c r="D653" s="4"/>
     </row>
@@ -13488,10 +13488,10 @@
         <v>6</v>
       </c>
       <c r="B654" s="87" t="s">
-        <v>1197</v>
+        <v>1161</v>
       </c>
       <c r="C654" s="4" t="s">
-        <v>1308</v>
+        <v>1270</v>
       </c>
       <c r="D654" s="4"/>
     </row>
@@ -13500,10 +13500,10 @@
         <v>6</v>
       </c>
       <c r="B655" s="87" t="s">
-        <v>1198</v>
+        <v>1162</v>
       </c>
       <c r="C655" s="4" t="s">
-        <v>1309</v>
+        <v>1271</v>
       </c>
       <c r="D655" s="4"/>
     </row>
@@ -13512,10 +13512,10 @@
         <v>6</v>
       </c>
       <c r="B656" s="87" t="s">
-        <v>1199</v>
+        <v>1163</v>
       </c>
       <c r="C656" s="4" t="s">
-        <v>1310</v>
+        <v>1272</v>
       </c>
       <c r="D656" s="4"/>
     </row>
@@ -13524,7 +13524,7 @@
         <v>141</v>
       </c>
       <c r="B657" s="94" t="s">
-        <v>1202</v>
+        <v>1166</v>
       </c>
       <c r="C657" s="94"/>
       <c r="D657" s="94"/>
@@ -13534,7 +13534,7 @@
         <v>141</v>
       </c>
       <c r="B658" s="66" t="s">
-        <v>1203</v>
+        <v>1167</v>
       </c>
       <c r="C658" s="66"/>
       <c r="D658" s="66"/>
@@ -13544,10 +13544,10 @@
         <v>140</v>
       </c>
       <c r="B659" s="55" t="s">
-        <v>1204</v>
+        <v>1168</v>
       </c>
       <c r="C659" s="55" t="s">
-        <v>1312</v>
+        <v>1274</v>
       </c>
       <c r="D659" s="55"/>
     </row>
@@ -13556,10 +13556,10 @@
         <v>5</v>
       </c>
       <c r="B660" s="4" t="s">
-        <v>1205</v>
+        <v>1169</v>
       </c>
       <c r="C660" s="4" t="s">
-        <v>1313</v>
+        <v>1275</v>
       </c>
       <c r="D660" s="4"/>
     </row>
@@ -13568,10 +13568,10 @@
         <v>5</v>
       </c>
       <c r="B661" s="4" t="s">
-        <v>1206</v>
+        <v>1170</v>
       </c>
       <c r="C661" s="4" t="s">
-        <v>1314</v>
+        <v>1276</v>
       </c>
       <c r="D661" s="4"/>
     </row>
@@ -13580,10 +13580,10 @@
         <v>5</v>
       </c>
       <c r="B662" s="4" t="s">
-        <v>1207</v>
+        <v>1171</v>
       </c>
       <c r="C662" s="4" t="s">
-        <v>1315</v>
+        <v>1277</v>
       </c>
       <c r="D662" s="4"/>
     </row>
@@ -13592,10 +13592,10 @@
         <v>5</v>
       </c>
       <c r="B663" s="4" t="s">
-        <v>1208</v>
+        <v>1172</v>
       </c>
       <c r="C663" s="4" t="s">
-        <v>1316</v>
+        <v>1278</v>
       </c>
       <c r="D663" s="4"/>
     </row>
@@ -13604,10 +13604,10 @@
         <v>5</v>
       </c>
       <c r="B664" s="4" t="s">
-        <v>1209</v>
+        <v>1173</v>
       </c>
       <c r="C664" s="4" t="s">
-        <v>1317</v>
+        <v>1279</v>
       </c>
       <c r="D664" s="4"/>
     </row>
@@ -13616,10 +13616,10 @@
         <v>5</v>
       </c>
       <c r="B665" s="4" t="s">
-        <v>1210</v>
+        <v>1174</v>
       </c>
       <c r="C665" s="4" t="s">
-        <v>1318</v>
+        <v>1280</v>
       </c>
       <c r="D665" s="4"/>
     </row>
@@ -13628,10 +13628,10 @@
         <v>5</v>
       </c>
       <c r="B666" s="4" t="s">
-        <v>1331</v>
+        <v>1293</v>
       </c>
       <c r="C666" s="4" t="s">
-        <v>1319</v>
+        <v>1281</v>
       </c>
       <c r="D666" s="4"/>
     </row>
@@ -13640,10 +13640,10 @@
         <v>5</v>
       </c>
       <c r="B667" s="4" t="s">
-        <v>1332</v>
+        <v>1294</v>
       </c>
       <c r="C667" s="4" t="s">
-        <v>1320</v>
+        <v>1282</v>
       </c>
       <c r="D667" s="4"/>
     </row>
@@ -13652,10 +13652,10 @@
         <v>5</v>
       </c>
       <c r="B668" s="4" t="s">
-        <v>1333</v>
+        <v>1295</v>
       </c>
       <c r="C668" s="4" t="s">
-        <v>1321</v>
+        <v>1283</v>
       </c>
       <c r="D668" s="4"/>
     </row>
@@ -13664,10 +13664,10 @@
         <v>5</v>
       </c>
       <c r="B669" s="4" t="s">
-        <v>1334</v>
+        <v>1296</v>
       </c>
       <c r="C669" s="4" t="s">
-        <v>1322</v>
+        <v>1284</v>
       </c>
       <c r="D669" s="4"/>
     </row>
@@ -13676,10 +13676,10 @@
         <v>5</v>
       </c>
       <c r="B670" s="4" t="s">
-        <v>1335</v>
+        <v>1297</v>
       </c>
       <c r="C670" s="4" t="s">
-        <v>1323</v>
+        <v>1285</v>
       </c>
       <c r="D670" s="4"/>
     </row>
@@ -13688,10 +13688,10 @@
         <v>5</v>
       </c>
       <c r="B671" s="4" t="s">
-        <v>1336</v>
+        <v>1298</v>
       </c>
       <c r="C671" s="4" t="s">
-        <v>1324</v>
+        <v>1286</v>
       </c>
       <c r="D671" s="4"/>
     </row>
@@ -13700,10 +13700,10 @@
         <v>5</v>
       </c>
       <c r="B672" s="4" t="s">
-        <v>1337</v>
+        <v>1299</v>
       </c>
       <c r="C672" s="4" t="s">
-        <v>1325</v>
+        <v>1287</v>
       </c>
       <c r="D672" s="4"/>
     </row>
@@ -13712,10 +13712,10 @@
         <v>5</v>
       </c>
       <c r="B673" s="4" t="s">
-        <v>1338</v>
+        <v>1300</v>
       </c>
       <c r="C673" s="4" t="s">
-        <v>1326</v>
+        <v>1288</v>
       </c>
       <c r="D673" s="4"/>
     </row>
@@ -13724,10 +13724,10 @@
         <v>5</v>
       </c>
       <c r="B674" s="4" t="s">
-        <v>1339</v>
+        <v>1301</v>
       </c>
       <c r="C674" s="4" t="s">
-        <v>1327</v>
+        <v>1289</v>
       </c>
       <c r="D674" s="4"/>
     </row>
@@ -13736,10 +13736,10 @@
         <v>5</v>
       </c>
       <c r="B675" s="4" t="s">
-        <v>1340</v>
+        <v>1302</v>
       </c>
       <c r="C675" s="4" t="s">
-        <v>1328</v>
+        <v>1290</v>
       </c>
       <c r="D675" s="4"/>
     </row>
@@ -13748,10 +13748,10 @@
         <v>5</v>
       </c>
       <c r="B676" s="4" t="s">
-        <v>1341</v>
+        <v>1303</v>
       </c>
       <c r="C676" s="4" t="s">
-        <v>1329</v>
+        <v>1291</v>
       </c>
       <c r="D676" s="4"/>
     </row>
@@ -13760,10 +13760,10 @@
         <v>5</v>
       </c>
       <c r="B677" s="4" t="s">
-        <v>1342</v>
+        <v>1304</v>
       </c>
       <c r="C677" s="4" t="s">
-        <v>1330</v>
+        <v>1292</v>
       </c>
       <c r="D677" s="4"/>
     </row>
@@ -13772,10 +13772,10 @@
         <v>4</v>
       </c>
       <c r="B678" s="89" t="s">
-        <v>1343</v>
+        <v>1305</v>
       </c>
       <c r="C678" s="89" t="s">
-        <v>1211</v>
+        <v>1175</v>
       </c>
       <c r="D678" s="89"/>
     </row>
@@ -13784,10 +13784,10 @@
         <v>4</v>
       </c>
       <c r="B679" s="89" t="s">
-        <v>1344</v>
+        <v>1574</v>
       </c>
       <c r="C679" s="89" t="s">
-        <v>1574</v>
+        <v>1534</v>
       </c>
       <c r="D679" s="89"/>
     </row>
@@ -13796,7 +13796,7 @@
         <v>141</v>
       </c>
       <c r="B680" s="55" t="s">
-        <v>1203</v>
+        <v>1167</v>
       </c>
       <c r="C680" s="55"/>
       <c r="D680" s="55"/>
@@ -13818,10 +13818,10 @@
         <v>4</v>
       </c>
       <c r="B682" s="89" t="s">
-        <v>912</v>
+        <v>880</v>
       </c>
       <c r="C682" s="89" t="s">
-        <v>1455</v>
+        <v>1416</v>
       </c>
       <c r="D682" s="4"/>
     </row>
@@ -13829,79 +13829,79 @@
       <c r="A683" s="96" t="s">
         <v>4</v>
       </c>
-      <c r="B683" s="96" t="s">
-        <v>913</v>
+      <c r="B683" s="89" t="s">
+        <v>1575</v>
       </c>
       <c r="C683" s="95" t="s">
-        <v>1575</v>
+        <v>1535</v>
       </c>
       <c r="D683" s="4"/>
     </row>
     <row r="684" spans="1:4">
       <c r="A684" s="75" t="s">
-        <v>1212</v>
+        <v>1176</v>
       </c>
       <c r="B684" s="75" t="s">
-        <v>1213</v>
+        <v>1177</v>
       </c>
       <c r="C684" s="75" t="s">
-        <v>1214</v>
+        <v>1178</v>
       </c>
       <c r="D684" s="4"/>
     </row>
     <row r="685" spans="1:4">
       <c r="A685" s="75" t="s">
-        <v>1212</v>
+        <v>1176</v>
       </c>
       <c r="B685" s="75" t="s">
-        <v>1215</v>
+        <v>1179</v>
       </c>
       <c r="C685" s="75" t="s">
-        <v>1216</v>
+        <v>1180</v>
       </c>
       <c r="D685" s="4"/>
     </row>
     <row r="686" spans="1:4">
       <c r="A686" s="75" t="s">
-        <v>1212</v>
+        <v>1176</v>
       </c>
       <c r="B686" s="75" t="s">
-        <v>1217</v>
+        <v>1181</v>
       </c>
       <c r="C686" s="75" t="s">
-        <v>1218</v>
+        <v>1182</v>
       </c>
       <c r="D686" s="4"/>
     </row>
     <row r="687" spans="1:4">
       <c r="A687" s="75" t="s">
-        <v>1219</v>
+        <v>1183</v>
       </c>
       <c r="B687" s="75" t="s">
-        <v>1219</v>
+        <v>1183</v>
       </c>
       <c r="C687" s="130"/>
     </row>
     <row r="688" spans="1:4">
       <c r="A688" s="75" t="s">
-        <v>1220</v>
+        <v>1184</v>
       </c>
       <c r="B688" s="75" t="s">
-        <v>1220</v>
+        <v>1184</v>
       </c>
       <c r="C688" s="4"/>
     </row>
     <row r="689" spans="1:3">
       <c r="A689" s="75" t="s">
-        <v>1221</v>
+        <v>1185</v>
       </c>
       <c r="B689" s="4" t="s">
-        <v>1221</v>
+        <v>1185</v>
       </c>
       <c r="C689" s="4"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="ltAIAbO7FEryhqFTPJdOKJX4yQERM/nf/eGCnZ+OFu//FCYSM8N9/q7QC1YSZJutEsLtse9yY5hCFkAHEYVwZg==" saltValue="Y+E0rc2Pnn5ws/dHAGHgrA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="6ifn0F4eIxrDbJpxzm0xadiQreZu/fgR2tPD3Q25vPz3zibgnFgR19ByTESkSBnqm3CN1Rn2Aaptbz1aYdfJ0w==" saltValue="VdLRz1y3jFZSwTOf7z3+JQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -13942,7 +13942,7 @@
         <v>21</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1345</v>
+        <v>1306</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>70</v>
@@ -14356,84 +14356,84 @@
     </row>
     <row r="53" spans="1:11">
       <c r="A53" t="s">
-        <v>1222</v>
+        <v>1186</v>
       </c>
       <c r="B53">
         <v>1</v>
       </c>
       <c r="C53" t="s">
-        <v>1223</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="54" spans="1:11">
       <c r="A54" t="s">
-        <v>1222</v>
+        <v>1186</v>
       </c>
       <c r="B54">
         <v>2</v>
       </c>
       <c r="C54" t="s">
-        <v>1224</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="55" spans="1:11">
       <c r="A55" t="s">
-        <v>1222</v>
+        <v>1186</v>
       </c>
       <c r="B55">
         <v>3</v>
       </c>
       <c r="C55" t="s">
-        <v>1225</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="56" spans="1:11">
       <c r="A56" t="s">
-        <v>1222</v>
+        <v>1186</v>
       </c>
       <c r="B56">
         <v>4</v>
       </c>
       <c r="C56" t="s">
-        <v>1226</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="57" spans="1:11">
       <c r="A57" t="s">
-        <v>1222</v>
+        <v>1186</v>
       </c>
       <c r="B57">
         <v>5</v>
       </c>
       <c r="C57" t="s">
-        <v>1227</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="58" spans="1:11">
       <c r="A58" t="s">
-        <v>1222</v>
+        <v>1186</v>
       </c>
       <c r="B58">
         <v>6</v>
       </c>
       <c r="C58" t="s">
-        <v>1228</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="59" spans="1:11">
       <c r="A59" t="s">
-        <v>1222</v>
+        <v>1186</v>
       </c>
       <c r="B59">
         <v>7</v>
       </c>
       <c r="C59" t="s">
-        <v>1229</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="61" spans="1:11">
       <c r="A61" s="2" t="s">
-        <v>1230</v>
+        <v>1194</v>
       </c>
       <c r="B61" s="2">
         <v>1</v>
@@ -14445,7 +14445,7 @@
     </row>
     <row r="62" spans="1:11">
       <c r="A62" s="2" t="s">
-        <v>1230</v>
+        <v>1194</v>
       </c>
       <c r="B62" s="2">
         <v>2</v>
@@ -14457,13 +14457,13 @@
     </row>
     <row r="63" spans="1:11">
       <c r="A63" s="2" t="s">
-        <v>1230</v>
+        <v>1194</v>
       </c>
       <c r="B63">
         <v>3</v>
       </c>
       <c r="C63" t="s">
-        <v>1231</v>
+        <v>1195</v>
       </c>
       <c r="K63" s="4"/>
     </row>
@@ -14475,10 +14475,10 @@
         <v>21</v>
       </c>
       <c r="B66" s="121" t="s">
-        <v>1458</v>
+        <v>1418</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>1459</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -14486,10 +14486,10 @@
         <v>21</v>
       </c>
       <c r="B67" s="121" t="s">
-        <v>1460</v>
+        <v>1420</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>1461</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -14497,10 +14497,10 @@
         <v>21</v>
       </c>
       <c r="B68" s="121" t="s">
-        <v>1462</v>
+        <v>1422</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>1463</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -14508,10 +14508,10 @@
         <v>21</v>
       </c>
       <c r="B69" s="121" t="s">
-        <v>1464</v>
+        <v>1424</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>1465</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -14519,10 +14519,10 @@
         <v>21</v>
       </c>
       <c r="B70" s="121" t="s">
-        <v>1466</v>
+        <v>1426</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>1467</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -14530,10 +14530,10 @@
         <v>21</v>
       </c>
       <c r="B71" s="121" t="s">
-        <v>1468</v>
+        <v>1428</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>1469</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -14541,10 +14541,10 @@
         <v>21</v>
       </c>
       <c r="B72" s="121" t="s">
-        <v>1470</v>
+        <v>1430</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>1471</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -14552,10 +14552,10 @@
         <v>21</v>
       </c>
       <c r="B73" s="121" t="s">
-        <v>1472</v>
+        <v>1432</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>1473</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -14563,10 +14563,10 @@
         <v>21</v>
       </c>
       <c r="B74" s="121" t="s">
-        <v>1474</v>
+        <v>1434</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>1475</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -14574,10 +14574,10 @@
         <v>21</v>
       </c>
       <c r="B75" s="121" t="s">
-        <v>1476</v>
+        <v>1436</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>1477</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -14585,10 +14585,10 @@
         <v>21</v>
       </c>
       <c r="B76" s="121" t="s">
-        <v>1478</v>
+        <v>1438</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>1479</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -14596,10 +14596,10 @@
         <v>21</v>
       </c>
       <c r="B77" s="121" t="s">
-        <v>1480</v>
+        <v>1440</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>1481</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -14607,10 +14607,10 @@
         <v>21</v>
       </c>
       <c r="B78" s="121" t="s">
-        <v>1482</v>
+        <v>1442</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>1483</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -14618,10 +14618,10 @@
         <v>21</v>
       </c>
       <c r="B79" s="121" t="s">
-        <v>1484</v>
+        <v>1444</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>1485</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -14629,10 +14629,10 @@
         <v>21</v>
       </c>
       <c r="B80" s="121" t="s">
-        <v>1486</v>
+        <v>1446</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>1487</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -14640,10 +14640,10 @@
         <v>21</v>
       </c>
       <c r="B81" s="121" t="s">
-        <v>1488</v>
+        <v>1448</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>1489</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -14651,10 +14651,10 @@
         <v>21</v>
       </c>
       <c r="B82" s="121" t="s">
-        <v>1490</v>
+        <v>1450</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>1491</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -14662,10 +14662,10 @@
         <v>21</v>
       </c>
       <c r="B83" s="121" t="s">
-        <v>1492</v>
+        <v>1452</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>1493</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -14673,10 +14673,10 @@
         <v>21</v>
       </c>
       <c r="B84" s="121" t="s">
-        <v>1494</v>
+        <v>1454</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>1495</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -14684,10 +14684,10 @@
         <v>21</v>
       </c>
       <c r="B85" s="121" t="s">
-        <v>1496</v>
+        <v>1456</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>1497</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -14695,10 +14695,10 @@
         <v>21</v>
       </c>
       <c r="B86" s="121" t="s">
-        <v>1498</v>
+        <v>1458</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>1499</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -14706,10 +14706,10 @@
         <v>21</v>
       </c>
       <c r="B87" s="121" t="s">
-        <v>1500</v>
+        <v>1460</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>1501</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -14717,10 +14717,10 @@
         <v>21</v>
       </c>
       <c r="B88" s="121" t="s">
-        <v>1502</v>
+        <v>1462</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>1503</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -14728,10 +14728,10 @@
         <v>21</v>
       </c>
       <c r="B89" s="122" t="s">
-        <v>1504</v>
+        <v>1464</v>
       </c>
       <c r="C89" t="s">
-        <v>1505</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -14739,10 +14739,10 @@
         <v>21</v>
       </c>
       <c r="B90" s="121" t="s">
-        <v>1506</v>
+        <v>1466</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>1507</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -14750,10 +14750,10 @@
         <v>21</v>
       </c>
       <c r="B91" s="121" t="s">
-        <v>1508</v>
+        <v>1468</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>1509</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -14761,10 +14761,10 @@
         <v>21</v>
       </c>
       <c r="B92" s="121" t="s">
-        <v>1510</v>
+        <v>1470</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>1511</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -14772,10 +14772,10 @@
         <v>21</v>
       </c>
       <c r="B93" s="121" t="s">
-        <v>1512</v>
+        <v>1472</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>1513</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -14783,10 +14783,10 @@
         <v>21</v>
       </c>
       <c r="B94" s="121" t="s">
-        <v>1514</v>
+        <v>1474</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>1515</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -14794,10 +14794,10 @@
         <v>21</v>
       </c>
       <c r="B95" s="121" t="s">
-        <v>1516</v>
+        <v>1476</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>1517</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -14805,10 +14805,10 @@
         <v>21</v>
       </c>
       <c r="B96" s="121" t="s">
-        <v>1518</v>
+        <v>1478</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>1519</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="97" spans="1:10">
@@ -14816,10 +14816,10 @@
         <v>21</v>
       </c>
       <c r="B97" s="121" t="s">
-        <v>1520</v>
+        <v>1480</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>1521</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="98" spans="1:10">
@@ -14827,10 +14827,10 @@
         <v>21</v>
       </c>
       <c r="B98" s="121" t="s">
-        <v>1522</v>
+        <v>1482</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>1523</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="99" spans="1:10">
@@ -14838,10 +14838,10 @@
         <v>21</v>
       </c>
       <c r="B99" s="121" t="s">
-        <v>1524</v>
+        <v>1484</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>1525</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="100" spans="1:10">
@@ -14849,10 +14849,10 @@
         <v>21</v>
       </c>
       <c r="B100" s="121" t="s">
-        <v>1526</v>
+        <v>1486</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>1527</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="101" spans="1:10">
@@ -14860,24 +14860,24 @@
         <v>21</v>
       </c>
       <c r="B101" s="121" t="s">
-        <v>1528</v>
+        <v>1488</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>1529</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="103" spans="1:10" s="1" customFormat="1">
       <c r="A103" s="1" t="s">
-        <v>1345</v>
+        <v>1306</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>1533</v>
+        <v>1493</v>
       </c>
       <c r="C103" s="3" t="s">
         <v>796</v>
       </c>
       <c r="D103" s="121" t="s">
-        <v>1490</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="104" spans="1:10" s="1" customFormat="1">
@@ -14895,13 +14895,13 @@
         <v>70</v>
       </c>
       <c r="B106" s="104" t="s">
-        <v>1347</v>
+        <v>1308</v>
       </c>
       <c r="C106" s="104" t="s">
-        <v>1371</v>
+        <v>1332</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>1533</v>
+        <v>1493</v>
       </c>
       <c r="I106" s="101"/>
       <c r="J106" s="102"/>
@@ -14911,13 +14911,13 @@
         <v>70</v>
       </c>
       <c r="B107" s="104" t="s">
-        <v>1348</v>
+        <v>1309</v>
       </c>
       <c r="C107" s="105" t="s">
-        <v>1372</v>
+        <v>1333</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>1533</v>
+        <v>1493</v>
       </c>
       <c r="I107" s="101"/>
       <c r="J107" s="102"/>
@@ -14927,13 +14927,13 @@
         <v>70</v>
       </c>
       <c r="B108" s="104" t="s">
-        <v>1349</v>
+        <v>1310</v>
       </c>
       <c r="C108" s="106" t="s">
-        <v>1373</v>
+        <v>1334</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>1533</v>
+        <v>1493</v>
       </c>
       <c r="I108" s="101"/>
       <c r="J108" s="102"/>
@@ -14943,13 +14943,13 @@
         <v>70</v>
       </c>
       <c r="B109" s="104" t="s">
-        <v>1350</v>
+        <v>1311</v>
       </c>
       <c r="C109" s="104" t="s">
-        <v>1374</v>
+        <v>1335</v>
       </c>
       <c r="E109" s="3" t="s">
-        <v>1533</v>
+        <v>1493</v>
       </c>
       <c r="I109" s="101"/>
       <c r="J109" s="102"/>
@@ -14959,13 +14959,13 @@
         <v>70</v>
       </c>
       <c r="B110" s="104" t="s">
-        <v>1351</v>
+        <v>1312</v>
       </c>
       <c r="C110" s="104" t="s">
-        <v>1375</v>
+        <v>1336</v>
       </c>
       <c r="E110" s="3" t="s">
-        <v>1533</v>
+        <v>1493</v>
       </c>
       <c r="I110" s="101"/>
       <c r="J110" s="102"/>
@@ -14975,13 +14975,13 @@
         <v>70</v>
       </c>
       <c r="B111" s="104" t="s">
-        <v>1352</v>
+        <v>1313</v>
       </c>
       <c r="C111" s="104" t="s">
-        <v>1376</v>
+        <v>1337</v>
       </c>
       <c r="E111" s="3" t="s">
-        <v>1533</v>
+        <v>1493</v>
       </c>
       <c r="I111" s="101"/>
       <c r="J111" s="102"/>
@@ -14991,13 +14991,13 @@
         <v>70</v>
       </c>
       <c r="B112" s="104" t="s">
-        <v>1353</v>
+        <v>1314</v>
       </c>
       <c r="C112" s="104" t="s">
-        <v>1377</v>
+        <v>1338</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>1533</v>
+        <v>1493</v>
       </c>
       <c r="I112" s="101"/>
       <c r="J112" s="102"/>
@@ -15007,13 +15007,13 @@
         <v>70</v>
       </c>
       <c r="B113" s="104" t="s">
-        <v>1354</v>
+        <v>1315</v>
       </c>
       <c r="C113" s="104" t="s">
-        <v>1378</v>
+        <v>1339</v>
       </c>
       <c r="E113" s="3" t="s">
-        <v>1533</v>
+        <v>1493</v>
       </c>
       <c r="I113" s="101"/>
       <c r="J113" s="102"/>
@@ -15023,13 +15023,13 @@
         <v>70</v>
       </c>
       <c r="B114" s="104" t="s">
-        <v>1355</v>
+        <v>1316</v>
       </c>
       <c r="C114" s="107" t="s">
-        <v>1379</v>
+        <v>1340</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>1533</v>
+        <v>1493</v>
       </c>
       <c r="I114" s="101"/>
       <c r="J114" s="102"/>
@@ -15039,13 +15039,13 @@
         <v>70</v>
       </c>
       <c r="B115" s="104" t="s">
-        <v>1356</v>
+        <v>1317</v>
       </c>
       <c r="C115" s="104" t="s">
-        <v>1380</v>
+        <v>1341</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>1533</v>
+        <v>1493</v>
       </c>
       <c r="I115" s="101"/>
       <c r="J115" s="102"/>
@@ -15055,13 +15055,13 @@
         <v>70</v>
       </c>
       <c r="B116" s="104" t="s">
-        <v>1357</v>
+        <v>1318</v>
       </c>
       <c r="C116" s="104" t="s">
-        <v>1381</v>
+        <v>1342</v>
       </c>
       <c r="E116" s="3" t="s">
-        <v>1533</v>
+        <v>1493</v>
       </c>
       <c r="I116" s="101"/>
       <c r="J116" s="102"/>
@@ -15071,13 +15071,13 @@
         <v>70</v>
       </c>
       <c r="B117" s="104" t="s">
-        <v>1358</v>
+        <v>1319</v>
       </c>
       <c r="C117" s="108" t="s">
-        <v>1382</v>
+        <v>1343</v>
       </c>
       <c r="E117" s="3" t="s">
-        <v>1533</v>
+        <v>1493</v>
       </c>
       <c r="I117" s="101"/>
       <c r="J117" s="102"/>
@@ -15087,13 +15087,13 @@
         <v>70</v>
       </c>
       <c r="B118" s="104" t="s">
-        <v>1359</v>
+        <v>1320</v>
       </c>
       <c r="C118" s="104" t="s">
-        <v>1383</v>
+        <v>1344</v>
       </c>
       <c r="E118" s="3" t="s">
-        <v>1533</v>
+        <v>1493</v>
       </c>
       <c r="I118" s="101"/>
       <c r="J118" s="102"/>
@@ -15103,13 +15103,13 @@
         <v>70</v>
       </c>
       <c r="B119" s="104" t="s">
-        <v>1360</v>
+        <v>1321</v>
       </c>
       <c r="C119" s="104" t="s">
-        <v>1384</v>
+        <v>1345</v>
       </c>
       <c r="E119" s="3" t="s">
-        <v>1533</v>
+        <v>1493</v>
       </c>
       <c r="I119" s="102"/>
       <c r="J119" s="102"/>
@@ -15119,13 +15119,13 @@
         <v>70</v>
       </c>
       <c r="B120" s="104" t="s">
-        <v>1361</v>
+        <v>1322</v>
       </c>
       <c r="C120" s="104" t="s">
-        <v>1385</v>
+        <v>1346</v>
       </c>
       <c r="E120" s="3" t="s">
-        <v>1533</v>
+        <v>1493</v>
       </c>
       <c r="I120" s="101"/>
       <c r="J120" s="102"/>
@@ -15135,13 +15135,13 @@
         <v>70</v>
       </c>
       <c r="B121" s="104" t="s">
-        <v>1362</v>
+        <v>1323</v>
       </c>
       <c r="C121" s="104" t="s">
-        <v>1386</v>
+        <v>1347</v>
       </c>
       <c r="E121" s="3" t="s">
-        <v>1533</v>
+        <v>1493</v>
       </c>
       <c r="I121" s="101"/>
       <c r="J121" s="102"/>
@@ -15151,13 +15151,13 @@
         <v>70</v>
       </c>
       <c r="B122" s="104" t="s">
-        <v>1363</v>
+        <v>1324</v>
       </c>
       <c r="C122" s="104" t="s">
-        <v>1387</v>
+        <v>1348</v>
       </c>
       <c r="E122" s="3" t="s">
-        <v>1533</v>
+        <v>1493</v>
       </c>
       <c r="I122" s="103"/>
       <c r="J122" s="102"/>
@@ -15167,13 +15167,13 @@
         <v>70</v>
       </c>
       <c r="B123" s="104" t="s">
-        <v>1364</v>
+        <v>1325</v>
       </c>
       <c r="C123" s="104" t="s">
-        <v>1388</v>
+        <v>1349</v>
       </c>
       <c r="E123" s="3" t="s">
-        <v>1533</v>
+        <v>1493</v>
       </c>
       <c r="I123" s="103"/>
       <c r="J123" s="102"/>
@@ -15183,13 +15183,13 @@
         <v>70</v>
       </c>
       <c r="B124" s="104" t="s">
-        <v>1365</v>
+        <v>1326</v>
       </c>
       <c r="C124" s="104" t="s">
-        <v>1389</v>
+        <v>1350</v>
       </c>
       <c r="E124" s="3" t="s">
-        <v>1533</v>
+        <v>1493</v>
       </c>
       <c r="I124" s="103"/>
       <c r="J124" s="102"/>
@@ -15199,13 +15199,13 @@
         <v>70</v>
       </c>
       <c r="B125" s="104" t="s">
-        <v>1366</v>
+        <v>1327</v>
       </c>
       <c r="C125" s="104" t="s">
-        <v>1390</v>
+        <v>1351</v>
       </c>
       <c r="E125" s="3" t="s">
-        <v>1533</v>
+        <v>1493</v>
       </c>
       <c r="I125" s="101"/>
       <c r="J125" s="102"/>
@@ -15215,13 +15215,13 @@
         <v>70</v>
       </c>
       <c r="B126" s="104" t="s">
-        <v>1367</v>
+        <v>1328</v>
       </c>
       <c r="C126" s="104" t="s">
-        <v>1391</v>
+        <v>1352</v>
       </c>
       <c r="E126" s="3" t="s">
-        <v>1533</v>
+        <v>1493</v>
       </c>
       <c r="I126" s="101"/>
       <c r="J126" s="102"/>
@@ -15231,13 +15231,13 @@
         <v>70</v>
       </c>
       <c r="B127" s="104" t="s">
-        <v>1368</v>
+        <v>1329</v>
       </c>
       <c r="C127" s="104" t="s">
-        <v>1392</v>
+        <v>1353</v>
       </c>
       <c r="E127" s="3" t="s">
-        <v>1533</v>
+        <v>1493</v>
       </c>
       <c r="I127" s="101"/>
       <c r="J127" s="102"/>
@@ -15247,13 +15247,13 @@
         <v>70</v>
       </c>
       <c r="B128" s="104" t="s">
-        <v>1369</v>
+        <v>1330</v>
       </c>
       <c r="C128" s="104" t="s">
-        <v>1393</v>
+        <v>1354</v>
       </c>
       <c r="E128" s="3" t="s">
-        <v>1533</v>
+        <v>1493</v>
       </c>
       <c r="I128" s="101"/>
       <c r="J128" s="102"/>
@@ -15263,13 +15263,13 @@
         <v>70</v>
       </c>
       <c r="B129" s="104" t="s">
-        <v>1370</v>
+        <v>1331</v>
       </c>
       <c r="C129" s="104" t="s">
-        <v>1394</v>
+        <v>1355</v>
       </c>
       <c r="E129" s="3" t="s">
-        <v>1533</v>
+        <v>1493</v>
       </c>
       <c r="I129" s="101"/>
       <c r="J129" s="102"/>
@@ -15280,456 +15280,456 @@
     </row>
     <row r="131" spans="1:10" s="112" customFormat="1" ht="15.6">
       <c r="A131" s="109" t="s">
-        <v>1346</v>
+        <v>1307</v>
       </c>
       <c r="B131" s="110" t="s">
-        <v>1426</v>
+        <v>1387</v>
       </c>
       <c r="C131" s="111" t="s">
-        <v>1398</v>
+        <v>1359</v>
       </c>
       <c r="D131" s="109"/>
       <c r="F131" s="112" t="s">
-        <v>1349</v>
+        <v>1310</v>
       </c>
       <c r="I131" s="113"/>
       <c r="J131" s="114"/>
     </row>
     <row r="132" spans="1:10" s="112" customFormat="1" ht="15.6">
       <c r="A132" s="109" t="s">
-        <v>1346</v>
+        <v>1307</v>
       </c>
       <c r="B132" s="110" t="s">
-        <v>1427</v>
+        <v>1388</v>
       </c>
       <c r="C132" s="115" t="s">
-        <v>1399</v>
+        <v>1360</v>
       </c>
       <c r="D132" s="109"/>
       <c r="F132" s="112" t="s">
-        <v>1352</v>
+        <v>1313</v>
       </c>
       <c r="I132" s="113"/>
       <c r="J132" s="114"/>
     </row>
     <row r="133" spans="1:10" s="112" customFormat="1" ht="15.6">
       <c r="A133" s="109" t="s">
-        <v>1346</v>
+        <v>1307</v>
       </c>
       <c r="B133" s="110" t="s">
-        <v>1428</v>
+        <v>1389</v>
       </c>
       <c r="C133" s="115" t="s">
-        <v>1400</v>
+        <v>1361</v>
       </c>
       <c r="D133" s="109"/>
       <c r="F133" s="112" t="s">
-        <v>1353</v>
+        <v>1314</v>
       </c>
       <c r="I133" s="113"/>
       <c r="J133" s="114"/>
     </row>
     <row r="134" spans="1:10" s="112" customFormat="1" ht="15.6">
       <c r="A134" s="109" t="s">
-        <v>1346</v>
+        <v>1307</v>
       </c>
       <c r="B134" s="110" t="s">
-        <v>1429</v>
+        <v>1390</v>
       </c>
       <c r="C134" s="111" t="s">
-        <v>1401</v>
+        <v>1362</v>
       </c>
       <c r="D134" s="109"/>
       <c r="F134" s="112" t="s">
-        <v>1354</v>
+        <v>1315</v>
       </c>
       <c r="I134" s="113"/>
       <c r="J134" s="114"/>
     </row>
     <row r="135" spans="1:10" s="112" customFormat="1" ht="15.6">
       <c r="A135" s="109" t="s">
-        <v>1346</v>
+        <v>1307</v>
       </c>
       <c r="B135" s="110" t="s">
-        <v>1430</v>
+        <v>1391</v>
       </c>
       <c r="C135" s="111" t="s">
-        <v>1402</v>
+        <v>1363</v>
       </c>
       <c r="D135" s="109"/>
       <c r="F135" s="112" t="s">
-        <v>1355</v>
+        <v>1316</v>
       </c>
       <c r="I135" s="113"/>
       <c r="J135" s="114"/>
     </row>
     <row r="136" spans="1:10" s="112" customFormat="1" ht="15.6">
       <c r="A136" s="109" t="s">
-        <v>1346</v>
+        <v>1307</v>
       </c>
       <c r="B136" s="110" t="s">
-        <v>1431</v>
+        <v>1392</v>
       </c>
       <c r="C136" s="111" t="s">
-        <v>1403</v>
+        <v>1364</v>
       </c>
       <c r="D136" s="109"/>
       <c r="F136" s="112" t="s">
-        <v>1356</v>
+        <v>1317</v>
       </c>
       <c r="I136" s="113"/>
       <c r="J136" s="114"/>
     </row>
     <row r="137" spans="1:10" s="112" customFormat="1" ht="15.6">
       <c r="A137" s="109" t="s">
-        <v>1346</v>
+        <v>1307</v>
       </c>
       <c r="B137" s="110" t="s">
-        <v>1432</v>
+        <v>1393</v>
       </c>
       <c r="C137" s="111" t="s">
-        <v>1404</v>
+        <v>1365</v>
       </c>
       <c r="D137" s="109"/>
       <c r="F137" s="112" t="s">
-        <v>1358</v>
+        <v>1319</v>
       </c>
       <c r="I137" s="113"/>
       <c r="J137" s="114"/>
     </row>
     <row r="138" spans="1:10" s="112" customFormat="1" ht="15.6">
       <c r="A138" s="109" t="s">
-        <v>1346</v>
+        <v>1307</v>
       </c>
       <c r="B138" s="110" t="s">
-        <v>1433</v>
+        <v>1394</v>
       </c>
       <c r="C138" s="111" t="s">
-        <v>1405</v>
+        <v>1366</v>
       </c>
       <c r="D138" s="109"/>
       <c r="F138" s="112" t="s">
-        <v>1358</v>
+        <v>1319</v>
       </c>
       <c r="I138" s="113"/>
       <c r="J138" s="114"/>
     </row>
     <row r="139" spans="1:10" s="112" customFormat="1" ht="15.6">
       <c r="A139" s="109" t="s">
-        <v>1346</v>
+        <v>1307</v>
       </c>
       <c r="B139" s="110" t="s">
-        <v>1434</v>
+        <v>1395</v>
       </c>
       <c r="C139" s="111" t="s">
-        <v>1406</v>
+        <v>1367</v>
       </c>
       <c r="F139" s="112" t="s">
-        <v>1358</v>
+        <v>1319</v>
       </c>
       <c r="I139" s="113"/>
       <c r="J139" s="114"/>
     </row>
     <row r="140" spans="1:10" s="112" customFormat="1" ht="15.6">
       <c r="A140" s="109" t="s">
-        <v>1346</v>
+        <v>1307</v>
       </c>
       <c r="B140" s="110" t="s">
-        <v>1435</v>
+        <v>1396</v>
       </c>
       <c r="C140" s="111" t="s">
-        <v>1407</v>
+        <v>1368</v>
       </c>
       <c r="F140" s="112" t="s">
-        <v>1359</v>
+        <v>1320</v>
       </c>
       <c r="I140" s="113"/>
       <c r="J140" s="114"/>
     </row>
     <row r="141" spans="1:10" s="112" customFormat="1" ht="15.6">
       <c r="A141" s="109" t="s">
-        <v>1346</v>
+        <v>1307</v>
       </c>
       <c r="B141" s="110" t="s">
-        <v>1436</v>
+        <v>1397</v>
       </c>
       <c r="C141" s="111" t="s">
-        <v>1408</v>
+        <v>1369</v>
       </c>
       <c r="F141" s="112" t="s">
-        <v>1360</v>
+        <v>1321</v>
       </c>
       <c r="I141" s="113"/>
       <c r="J141" s="114"/>
     </row>
     <row r="142" spans="1:10" s="112" customFormat="1" ht="15.6">
       <c r="A142" s="109" t="s">
-        <v>1346</v>
+        <v>1307</v>
       </c>
       <c r="B142" s="110" t="s">
-        <v>1437</v>
+        <v>1398</v>
       </c>
       <c r="C142" s="111" t="s">
-        <v>1409</v>
+        <v>1370</v>
       </c>
       <c r="F142" s="112" t="s">
-        <v>1361</v>
+        <v>1322</v>
       </c>
       <c r="I142" s="113"/>
       <c r="J142" s="114"/>
     </row>
     <row r="143" spans="1:10" s="112" customFormat="1" ht="15.6">
       <c r="A143" s="109" t="s">
-        <v>1346</v>
+        <v>1307</v>
       </c>
       <c r="B143" s="110" t="s">
-        <v>1438</v>
+        <v>1399</v>
       </c>
       <c r="C143" s="116" t="s">
-        <v>1410</v>
+        <v>1371</v>
       </c>
       <c r="F143" s="112" t="s">
-        <v>1361</v>
+        <v>1322</v>
       </c>
       <c r="I143" s="113"/>
       <c r="J143" s="114"/>
     </row>
     <row r="144" spans="1:10" s="112" customFormat="1" ht="15.6">
       <c r="A144" s="109" t="s">
-        <v>1346</v>
+        <v>1307</v>
       </c>
       <c r="B144" s="110" t="s">
-        <v>1439</v>
+        <v>1400</v>
       </c>
       <c r="C144" s="111" t="s">
-        <v>1411</v>
+        <v>1372</v>
       </c>
       <c r="F144" s="112" t="s">
-        <v>1361</v>
+        <v>1322</v>
       </c>
       <c r="I144" s="113"/>
       <c r="J144" s="114"/>
     </row>
     <row r="145" spans="1:10" s="112" customFormat="1" ht="15.6">
       <c r="A145" s="109" t="s">
-        <v>1346</v>
+        <v>1307</v>
       </c>
       <c r="B145" s="110" t="s">
-        <v>1440</v>
+        <v>1401</v>
       </c>
       <c r="C145" s="111" t="s">
-        <v>1412</v>
+        <v>1373</v>
       </c>
       <c r="F145" s="112" t="s">
-        <v>1362</v>
+        <v>1323</v>
       </c>
       <c r="I145" s="113"/>
       <c r="J145" s="114"/>
     </row>
     <row r="146" spans="1:10" s="112" customFormat="1" ht="15.6">
       <c r="A146" s="109" t="s">
-        <v>1346</v>
+        <v>1307</v>
       </c>
       <c r="B146" s="110" t="s">
-        <v>1441</v>
+        <v>1402</v>
       </c>
       <c r="C146" s="111" t="s">
-        <v>1413</v>
+        <v>1374</v>
       </c>
       <c r="F146" s="112" t="s">
-        <v>1363</v>
+        <v>1324</v>
       </c>
       <c r="I146" s="113"/>
       <c r="J146" s="114"/>
     </row>
     <row r="147" spans="1:10" s="112" customFormat="1" ht="15.6">
       <c r="A147" s="109" t="s">
-        <v>1346</v>
+        <v>1307</v>
       </c>
       <c r="B147" s="110" t="s">
-        <v>1442</v>
+        <v>1403</v>
       </c>
       <c r="C147" s="111" t="s">
-        <v>1414</v>
+        <v>1375</v>
       </c>
       <c r="F147" s="112" t="s">
-        <v>1363</v>
+        <v>1324</v>
       </c>
       <c r="I147" s="113"/>
       <c r="J147" s="114"/>
     </row>
     <row r="148" spans="1:10" s="112" customFormat="1" ht="15.6">
       <c r="A148" s="109" t="s">
-        <v>1346</v>
+        <v>1307</v>
       </c>
       <c r="B148" s="110" t="s">
-        <v>1443</v>
+        <v>1404</v>
       </c>
       <c r="C148" s="111" t="s">
-        <v>1415</v>
+        <v>1376</v>
       </c>
       <c r="F148" s="112" t="s">
-        <v>1363</v>
+        <v>1324</v>
       </c>
       <c r="I148" s="113"/>
       <c r="J148" s="114"/>
     </row>
     <row r="149" spans="1:10" s="112" customFormat="1" ht="15.6">
       <c r="A149" s="109" t="s">
-        <v>1346</v>
+        <v>1307</v>
       </c>
       <c r="B149" s="110" t="s">
-        <v>1444</v>
+        <v>1405</v>
       </c>
       <c r="C149" s="111" t="s">
-        <v>1416</v>
+        <v>1377</v>
       </c>
       <c r="F149" s="112" t="s">
-        <v>1365</v>
+        <v>1326</v>
       </c>
       <c r="I149" s="113"/>
       <c r="J149" s="114"/>
     </row>
     <row r="150" spans="1:10" s="112" customFormat="1" ht="15.6">
       <c r="A150" s="109" t="s">
-        <v>1346</v>
+        <v>1307</v>
       </c>
       <c r="B150" s="110" t="s">
-        <v>1445</v>
+        <v>1406</v>
       </c>
       <c r="C150" s="117" t="s">
-        <v>1417</v>
+        <v>1378</v>
       </c>
       <c r="F150" s="112" t="s">
-        <v>1365</v>
+        <v>1326</v>
       </c>
       <c r="I150" s="113"/>
       <c r="J150" s="114"/>
     </row>
     <row r="151" spans="1:10" s="112" customFormat="1" ht="15.6">
       <c r="A151" s="109" t="s">
-        <v>1346</v>
+        <v>1307</v>
       </c>
       <c r="B151" s="110" t="s">
-        <v>1446</v>
+        <v>1407</v>
       </c>
       <c r="C151" s="111" t="s">
-        <v>1418</v>
+        <v>1379</v>
       </c>
       <c r="F151" s="112" t="s">
-        <v>1366</v>
+        <v>1327</v>
       </c>
       <c r="I151" s="113"/>
       <c r="J151" s="114"/>
     </row>
     <row r="152" spans="1:10" s="112" customFormat="1" ht="15.6">
       <c r="A152" s="109" t="s">
-        <v>1346</v>
+        <v>1307</v>
       </c>
       <c r="B152" s="110" t="s">
-        <v>1447</v>
+        <v>1408</v>
       </c>
       <c r="C152" s="111" t="s">
-        <v>1419</v>
+        <v>1380</v>
       </c>
       <c r="F152" s="112" t="s">
-        <v>1366</v>
+        <v>1327</v>
       </c>
       <c r="I152" s="113"/>
       <c r="J152" s="114"/>
     </row>
     <row r="153" spans="1:10" s="112" customFormat="1" ht="15.6">
       <c r="A153" s="109" t="s">
-        <v>1346</v>
+        <v>1307</v>
       </c>
       <c r="B153" s="110" t="s">
-        <v>1448</v>
+        <v>1409</v>
       </c>
       <c r="C153" s="111" t="s">
-        <v>1420</v>
+        <v>1381</v>
       </c>
       <c r="F153" s="112" t="s">
-        <v>1367</v>
+        <v>1328</v>
       </c>
       <c r="I153" s="113"/>
       <c r="J153" s="114"/>
     </row>
     <row r="154" spans="1:10" s="112" customFormat="1" ht="15.6">
       <c r="A154" s="109" t="s">
-        <v>1346</v>
+        <v>1307</v>
       </c>
       <c r="B154" s="110" t="s">
-        <v>1449</v>
+        <v>1410</v>
       </c>
       <c r="C154" s="111" t="s">
-        <v>1421</v>
+        <v>1382</v>
       </c>
       <c r="F154" s="112" t="s">
-        <v>1368</v>
+        <v>1329</v>
       </c>
       <c r="I154" s="113"/>
       <c r="J154" s="114"/>
     </row>
     <row r="155" spans="1:10" s="112" customFormat="1" ht="15.6">
       <c r="A155" s="109" t="s">
-        <v>1346</v>
+        <v>1307</v>
       </c>
       <c r="B155" s="110" t="s">
-        <v>1450</v>
+        <v>1411</v>
       </c>
       <c r="C155" s="111" t="s">
-        <v>1422</v>
+        <v>1383</v>
       </c>
       <c r="F155" s="112" t="s">
-        <v>1369</v>
+        <v>1330</v>
       </c>
       <c r="I155" s="118"/>
       <c r="J155" s="114"/>
     </row>
     <row r="156" spans="1:10" s="112" customFormat="1" ht="15.6">
       <c r="A156" s="109" t="s">
-        <v>1346</v>
+        <v>1307</v>
       </c>
       <c r="B156" s="110" t="s">
-        <v>1451</v>
+        <v>1412</v>
       </c>
       <c r="C156" s="117" t="s">
-        <v>1423</v>
+        <v>1384</v>
       </c>
       <c r="F156" s="112" t="s">
-        <v>1369</v>
+        <v>1330</v>
       </c>
       <c r="I156" s="118"/>
       <c r="J156" s="114"/>
     </row>
     <row r="157" spans="1:10" s="112" customFormat="1" ht="15.6">
       <c r="A157" s="109" t="s">
-        <v>1346</v>
+        <v>1307</v>
       </c>
       <c r="B157" s="110" t="s">
-        <v>1452</v>
+        <v>1413</v>
       </c>
       <c r="C157" s="111" t="s">
-        <v>1424</v>
+        <v>1385</v>
       </c>
       <c r="F157" s="112" t="s">
-        <v>1369</v>
+        <v>1330</v>
       </c>
       <c r="I157" s="118"/>
       <c r="J157" s="114"/>
     </row>
     <row r="158" spans="1:10" s="112" customFormat="1" ht="15.6">
       <c r="A158" s="109" t="s">
-        <v>1346</v>
+        <v>1307</v>
       </c>
       <c r="B158" s="110" t="s">
-        <v>1453</v>
+        <v>1414</v>
       </c>
       <c r="C158" s="111" t="s">
-        <v>1425</v>
+        <v>1386</v>
       </c>
       <c r="F158" s="112" t="s">
-        <v>1370</v>
+        <v>1331</v>
       </c>
       <c r="I158" s="118"/>
       <c r="J158" s="114"/>
@@ -15767,10 +15767,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>1532</v>
+        <v>1492</v>
       </c>
       <c r="B2" t="s">
-        <v>1532</v>
+        <v>1492</v>
       </c>
       <c r="C2">
         <v>11111111</v>
